--- a/JosephM.CustomisationImporter.Test/TestCustomisationsUpdate.xlsx
+++ b/JosephM.CustomisationImporter.Test/TestCustomisationsUpdate.xlsx
@@ -1,15 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joseph.mcgregor-macd\Source\Repos\XRM-Developer-Tool\JosephM.CustomisationImporter.Test\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" activeTab="1"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Record Types" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="Fields" sheetId="2" r:id="rId4"/>
-    <sheet state="visible" name="Option Sets" sheetId="3" r:id="rId5"/>
-    <sheet state="visible" name="Relationships" sheetId="4" r:id="rId6"/>
+    <sheet name="Record Types" sheetId="1" r:id="rId1"/>
+    <sheet name="Fields" sheetId="2" r:id="rId2"/>
+    <sheet name="Option Sets" sheetId="3" r:id="rId3"/>
+    <sheet name="Relationships" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -418,21 +426,21 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -441,67 +449,326 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="15.57"/>
-    <col customWidth="1" min="2" max="2" width="20.43"/>
-    <col customWidth="1" min="3" max="5" width="20.14"/>
-    <col customWidth="1" min="6" max="22" width="7.0"/>
-    <col customWidth="1" min="23" max="26" width="12.57"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="5" width="20.140625" customWidth="1"/>
+    <col min="6" max="22" width="7" customWidth="1"/>
+    <col min="23" max="26" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -549,7 +816,7 @@
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:22">
       <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
@@ -566,28 +833,28 @@
         <v>0</v>
       </c>
       <c r="F2" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G2" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H2" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I2" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J2" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K2" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L2" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" s="2" t="s">
         <v>46</v>
       </c>
@@ -604,147 +871,147 @@
         <v>0</v>
       </c>
       <c r="F3" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G3" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H3" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I3" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J3" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K3" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L3" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:22">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:22">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:22">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:22">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:22">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:22">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:22">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:22">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:22">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:22">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:22">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:22">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:5">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:5">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:5">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:5">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:5">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -752,34 +1019,37 @@
       <c r="E21" s="2"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA999"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="22.14"/>
-    <col customWidth="1" min="2" max="2" width="15.14"/>
-    <col customWidth="1" min="3" max="3" width="18.43"/>
-    <col customWidth="1" min="4" max="4" width="13.57"/>
-    <col customWidth="1" min="5" max="5" width="32.86"/>
-    <col customWidth="1" min="6" max="6" width="23.14"/>
-    <col customWidth="1" min="7" max="11" width="19.71"/>
-    <col customWidth="1" min="12" max="13" width="13.71"/>
-    <col customWidth="1" min="14" max="17" width="12.71"/>
-    <col customWidth="1" min="18" max="18" width="11.57"/>
-    <col customWidth="1" min="19" max="20" width="11.43"/>
-    <col customWidth="1" min="21" max="21" width="39.43"/>
-    <col customWidth="1" min="22" max="22" width="6.14"/>
-    <col customWidth="1" min="23" max="27" width="7.0"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="32.85546875" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" customWidth="1"/>
+    <col min="7" max="11" width="19.7109375" customWidth="1"/>
+    <col min="12" max="13" width="13.7109375" customWidth="1"/>
+    <col min="14" max="17" width="12.7109375" customWidth="1"/>
+    <col min="18" max="18" width="11.5703125" customWidth="1"/>
+    <col min="19" max="20" width="11.42578125" customWidth="1"/>
+    <col min="21" max="21" width="39.42578125" customWidth="1"/>
+    <col min="22" max="22" width="6.140625" customWidth="1"/>
+    <col min="23" max="27" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:27">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -852,7 +1122,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:27">
       <c r="A2" s="2" t="s">
         <v>34</v>
       </c>
@@ -881,17 +1151,17 @@
         <v>0</v>
       </c>
       <c r="J2" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K2" s="2">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="2" t="b">
         <v>0</v>
       </c>
       <c r="N2" s="2">
-        <v>200.0</v>
+        <v>200</v>
       </c>
       <c r="O2" s="1"/>
       <c r="P2" s="3"/>
@@ -899,7 +1169,7 @@
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="U2" s="1"/>
       <c r="V2" s="2" t="b">
@@ -911,7 +1181,7 @@
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:27">
       <c r="A3" s="2" t="s">
         <v>34</v>
       </c>
@@ -931,16 +1201,16 @@
         <v>0</v>
       </c>
       <c r="G3" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H3" s="2" t="b">
         <v>0</v>
       </c>
       <c r="I3" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J3" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -948,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="N3" s="2">
-        <v>400.0</v>
+        <v>400</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" s="3"/>
@@ -956,14 +1226,14 @@
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
       <c r="T3" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="U3" s="2"/>
       <c r="V3" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:27">
       <c r="A4" s="2" t="s">
         <v>34</v>
       </c>
@@ -983,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="G4" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H4" s="2" t="b">
         <v>0</v>
       </c>
       <c r="I4" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -1004,7 +1274,7 @@
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
       <c r="T4" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="U4" s="2" t="s">
         <v>41</v>
@@ -1013,7 +1283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:27">
       <c r="A5" s="2" t="s">
         <v>34</v>
       </c>
@@ -1033,13 +1303,13 @@
         <v>0</v>
       </c>
       <c r="G5" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H5" s="2" t="b">
         <v>0</v>
       </c>
       <c r="I5" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -1054,7 +1324,7 @@
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
       <c r="T5" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="U5" s="2" t="s">
         <v>45</v>
@@ -1063,7 +1333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:27">
       <c r="A6" s="2" t="s">
         <v>34</v>
       </c>
@@ -1083,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="G6" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H6" s="2" t="b">
         <v>0</v>
       </c>
       <c r="I6" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -1102,20 +1372,20 @@
       <c r="P6" s="3"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2">
-        <v>50000.0</v>
+        <v>50000</v>
       </c>
       <c r="S6" s="2">
-        <v>200000.0</v>
+        <v>200000</v>
       </c>
       <c r="T6" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="U6" s="2"/>
       <c r="V6" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:27">
       <c r="A7" s="2" t="s">
         <v>34</v>
       </c>
@@ -1135,13 +1405,13 @@
         <v>0</v>
       </c>
       <c r="G7" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H7" s="2" t="b">
         <v>0</v>
       </c>
       <c r="I7" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -1156,14 +1426,14 @@
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="U7" s="2"/>
       <c r="V7" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:27">
       <c r="A8" s="2" t="s">
         <v>34</v>
       </c>
@@ -1183,13 +1453,13 @@
         <v>0</v>
       </c>
       <c r="G8" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H8" s="2" t="b">
         <v>0</v>
       </c>
       <c r="I8" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -1208,14 +1478,14 @@
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="U8" s="2"/>
       <c r="V8" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:27">
       <c r="A9" s="2" t="s">
         <v>34</v>
       </c>
@@ -1260,7 +1530,7 @@
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
       <c r="T9" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="U9" s="3"/>
       <c r="V9" s="2" t="b">
@@ -1272,7 +1542,7 @@
       <c r="Z9" s="3"/>
       <c r="AA9" s="3"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:27">
       <c r="A10" s="2" t="s">
         <v>34</v>
       </c>
@@ -1317,7 +1587,7 @@
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
       <c r="T10" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="U10" s="3"/>
       <c r="V10" s="2" t="b">
@@ -1329,7 +1599,7 @@
       <c r="Z10" s="3"/>
       <c r="AA10" s="3"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:27">
       <c r="A11" s="2" t="s">
         <v>34</v>
       </c>
@@ -1349,13 +1619,13 @@
         <v>0</v>
       </c>
       <c r="G11" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H11" s="2" t="b">
         <v>0</v>
       </c>
       <c r="I11" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -1372,14 +1642,14 @@
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
       <c r="T11" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="U11" s="2"/>
       <c r="V11" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:27">
       <c r="A12" s="2" t="s">
         <v>34</v>
       </c>
@@ -1399,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="G12" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H12" s="2" t="b">
         <v>0</v>
       </c>
       <c r="I12" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -1418,20 +1688,20 @@
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="2">
-        <v>50000.0</v>
+        <v>50000</v>
       </c>
       <c r="S12" s="2">
-        <v>200000.0</v>
+        <v>200000</v>
       </c>
       <c r="T12" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="U12" s="2"/>
       <c r="V12" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:27">
       <c r="A13" s="2" t="s">
         <v>34</v>
       </c>
@@ -1451,13 +1721,13 @@
         <v>0</v>
       </c>
       <c r="G13" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H13" s="2" t="b">
         <v>0</v>
       </c>
       <c r="I13" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -1470,20 +1740,20 @@
       <c r="P13" s="3"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2">
-        <v>50000.0</v>
+        <v>50000</v>
       </c>
       <c r="S13" s="2">
-        <v>200000.0</v>
+        <v>200000</v>
       </c>
       <c r="T13" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="U13" s="2"/>
       <c r="V13" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:27">
       <c r="A14" s="2" t="s">
         <v>34</v>
       </c>
@@ -1503,13 +1773,13 @@
         <v>0</v>
       </c>
       <c r="G14" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -1518,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="N14" s="2">
-        <v>200.0</v>
+        <v>200</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" s="3"/>
@@ -1526,14 +1796,14 @@
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
       <c r="T14" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="U14" s="2"/>
       <c r="V14" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:27">
       <c r="A15" s="2" t="s">
         <v>34</v>
       </c>
@@ -1553,13 +1823,13 @@
         <v>0</v>
       </c>
       <c r="G15" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -1574,7 +1844,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
       <c r="T15" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="U15" s="2" t="s">
         <v>45</v>
@@ -1583,7 +1853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:27">
       <c r="A16" s="2" t="s">
         <v>34</v>
       </c>
@@ -1603,13 +1873,13 @@
         <v>0</v>
       </c>
       <c r="G16" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
@@ -1622,20 +1892,20 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S16" s="2">
-        <v>100000.0</v>
+        <v>100000</v>
       </c>
       <c r="T16" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="U16" s="2"/>
       <c r="V16" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:27">
       <c r="A17" s="2" t="s">
         <v>34</v>
       </c>
@@ -1655,13 +1925,13 @@
         <v>0</v>
       </c>
       <c r="G17" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H17" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
@@ -1676,14 +1946,14 @@
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
       <c r="T17" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="U17" s="2"/>
       <c r="V17" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:27">
       <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
@@ -1703,13 +1973,13 @@
         <v>0</v>
       </c>
       <c r="G18" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H18" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
@@ -1724,14 +1994,14 @@
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
       <c r="T18" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="U18" s="2"/>
       <c r="V18" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:27">
       <c r="A19" s="2" t="s">
         <v>34</v>
       </c>
@@ -1751,13 +2021,13 @@
         <v>0</v>
       </c>
       <c r="G19" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H19" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
@@ -1774,14 +2044,14 @@
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
       <c r="T19" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="U19" s="2"/>
       <c r="V19" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:27">
       <c r="A20" s="2" t="s">
         <v>34</v>
       </c>
@@ -1801,13 +2071,13 @@
         <v>0</v>
       </c>
       <c r="G20" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H20" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
@@ -1820,20 +2090,20 @@
       <c r="P20" s="3"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S20" s="2">
-        <v>100000.0</v>
+        <v>100000</v>
       </c>
       <c r="T20" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="U20" s="2"/>
       <c r="V20" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:27">
       <c r="A21" s="2" t="s">
         <v>34</v>
       </c>
@@ -1853,13 +2123,13 @@
         <v>0</v>
       </c>
       <c r="G21" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H21" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I21" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
@@ -1872,20 +2142,20 @@
       <c r="P21" s="3"/>
       <c r="Q21" s="2"/>
       <c r="R21" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S21" s="2">
-        <v>100000.0</v>
+        <v>100000</v>
       </c>
       <c r="T21" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="U21" s="2"/>
       <c r="V21" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:27">
       <c r="A22" s="2" t="s">
         <v>48</v>
       </c>
@@ -1905,13 +2175,13 @@
         <v>1</v>
       </c>
       <c r="G22" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H22" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
@@ -1920,7 +2190,7 @@
         <v>0</v>
       </c>
       <c r="N22" s="2">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" s="3"/>
@@ -1928,14 +2198,14 @@
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
       <c r="T22" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="U22" s="2"/>
       <c r="V22" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:27">
       <c r="A23" s="2" t="s">
         <v>34</v>
       </c>
@@ -1963,12 +2233,8 @@
       <c r="I23" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="J23" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="K23" s="2">
-        <v>125.0</v>
-      </c>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2" t="b">
         <v>0</v>
@@ -1980,7 +2246,7 @@
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
       <c r="T23" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="U23" s="2" t="s">
         <v>52</v>
@@ -1994,7 +2260,7 @@
       <c r="Z23" s="2"/>
       <c r="AA23" s="2"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:27">
       <c r="A24" s="2" t="s">
         <v>34</v>
       </c>
@@ -2022,12 +2288,8 @@
       <c r="I24" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="J24" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="K24" s="2">
-        <v>125.0</v>
-      </c>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2" t="b">
         <v>0</v>
@@ -2039,7 +2301,7 @@
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
       <c r="T24" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="U24" s="2" t="s">
         <v>45</v>
@@ -2053,7 +2315,7 @@
       <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:27">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -2077,7 +2339,7 @@
       <c r="U25" s="2"/>
       <c r="V25" s="2"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:27">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -2101,7 +2363,7 @@
       <c r="U26" s="2"/>
       <c r="V26" s="2"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:27">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -2125,7 +2387,7 @@
       <c r="U27" s="2"/>
       <c r="V27" s="2"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:27">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -2149,7 +2411,7 @@
       <c r="U28" s="2"/>
       <c r="V28" s="2"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:27">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -2173,7 +2435,7 @@
       <c r="U29" s="2"/>
       <c r="V29" s="2"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:27">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -2197,7 +2459,7 @@
       <c r="U30" s="2"/>
       <c r="V30" s="2"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:27">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -2221,7 +2483,7 @@
       <c r="U31" s="2"/>
       <c r="V31" s="2"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:27">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -2245,7 +2507,7 @@
       <c r="U32" s="2"/>
       <c r="V32" s="2"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:22">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -2269,7 +2531,7 @@
       <c r="U33" s="2"/>
       <c r="V33" s="2"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:22">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -2293,7 +2555,7 @@
       <c r="U34" s="2"/>
       <c r="V34" s="2"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:22">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -2317,7 +2579,7 @@
       <c r="U35" s="2"/>
       <c r="V35" s="2"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:22">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -2341,7 +2603,7 @@
       <c r="U36" s="2"/>
       <c r="V36" s="2"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:22">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -2365,7 +2627,7 @@
       <c r="U37" s="2"/>
       <c r="V37" s="2"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:22">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -2389,7 +2651,7 @@
       <c r="U38" s="2"/>
       <c r="V38" s="2"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:22">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -2413,7 +2675,7 @@
       <c r="U39" s="2"/>
       <c r="V39" s="2"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:22">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -2437,7 +2699,7 @@
       <c r="U40" s="2"/>
       <c r="V40" s="2"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:22">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -2461,7 +2723,7 @@
       <c r="U41" s="2"/>
       <c r="V41" s="2"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:22">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -2485,7 +2747,7 @@
       <c r="U42" s="2"/>
       <c r="V42" s="2"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:22">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -2509,7 +2771,7 @@
       <c r="U43" s="2"/>
       <c r="V43" s="2"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:22">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -2533,7 +2795,7 @@
       <c r="U44" s="2"/>
       <c r="V44" s="2"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:22">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -2557,7 +2819,7 @@
       <c r="U45" s="2"/>
       <c r="V45" s="2"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:22">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -2581,7 +2843,7 @@
       <c r="U46" s="2"/>
       <c r="V46" s="2"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:22">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -2605,7 +2867,7 @@
       <c r="U47" s="2"/>
       <c r="V47" s="2"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:22">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -2629,7 +2891,7 @@
       <c r="U48" s="2"/>
       <c r="V48" s="2"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:22">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -2653,7 +2915,7 @@
       <c r="U49" s="2"/>
       <c r="V49" s="2"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:22">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -2677,7 +2939,7 @@
       <c r="U50" s="2"/>
       <c r="V50" s="2"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:22">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -2701,7 +2963,7 @@
       <c r="U51" s="2"/>
       <c r="V51" s="2"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:22">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -2725,7 +2987,7 @@
       <c r="U52" s="2"/>
       <c r="V52" s="2"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:22">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -2749,7 +3011,7 @@
       <c r="U53" s="2"/>
       <c r="V53" s="2"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:22">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -2773,7 +3035,7 @@
       <c r="U54" s="2"/>
       <c r="V54" s="2"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:22">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -2797,7 +3059,7 @@
       <c r="U55" s="2"/>
       <c r="V55" s="2"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:22">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -2821,7 +3083,7 @@
       <c r="U56" s="2"/>
       <c r="V56" s="2"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:22">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -2845,7 +3107,7 @@
       <c r="U57" s="2"/>
       <c r="V57" s="2"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:22">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -2869,7 +3131,7 @@
       <c r="U58" s="2"/>
       <c r="V58" s="2"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:22">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -2893,7 +3155,7 @@
       <c r="U59" s="2"/>
       <c r="V59" s="2"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:22">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -2917,7 +3179,7 @@
       <c r="U60" s="2"/>
       <c r="V60" s="2"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:22">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -2941,7 +3203,7 @@
       <c r="U61" s="2"/>
       <c r="V61" s="2"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:22">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -2965,7 +3227,7 @@
       <c r="U62" s="2"/>
       <c r="V62" s="2"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:22">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -2989,7 +3251,7 @@
       <c r="U63" s="2"/>
       <c r="V63" s="2"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:22">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -3013,7 +3275,7 @@
       <c r="U64" s="2"/>
       <c r="V64" s="2"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:22">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -3037,7 +3299,7 @@
       <c r="U65" s="2"/>
       <c r="V65" s="2"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:22">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -3061,7 +3323,7 @@
       <c r="U66" s="2"/>
       <c r="V66" s="2"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:22">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -3085,7 +3347,7 @@
       <c r="U67" s="2"/>
       <c r="V67" s="2"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:22">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -3109,7 +3371,7 @@
       <c r="U68" s="2"/>
       <c r="V68" s="2"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:22">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -3133,7 +3395,7 @@
       <c r="U69" s="2"/>
       <c r="V69" s="2"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:22">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -3157,7 +3419,7 @@
       <c r="U70" s="2"/>
       <c r="V70" s="2"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:22">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -3181,7 +3443,7 @@
       <c r="U71" s="2"/>
       <c r="V71" s="2"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:22">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -3205,7 +3467,7 @@
       <c r="U72" s="2"/>
       <c r="V72" s="2"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:22">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -3229,7 +3491,7 @@
       <c r="U73" s="2"/>
       <c r="V73" s="2"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:22">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -3253,7 +3515,7 @@
       <c r="U74" s="2"/>
       <c r="V74" s="2"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:22">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -3277,7 +3539,7 @@
       <c r="U75" s="2"/>
       <c r="V75" s="2"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:22">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -3301,7 +3563,7 @@
       <c r="U76" s="2"/>
       <c r="V76" s="2"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:22">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -3325,7 +3587,7 @@
       <c r="U77" s="2"/>
       <c r="V77" s="2"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:22">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -3349,7 +3611,7 @@
       <c r="U78" s="2"/>
       <c r="V78" s="2"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:22">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -3373,7 +3635,7 @@
       <c r="U79" s="2"/>
       <c r="V79" s="2"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:22">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -3397,7 +3659,7 @@
       <c r="U80" s="2"/>
       <c r="V80" s="2"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:22">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -3421,7 +3683,7 @@
       <c r="U81" s="2"/>
       <c r="V81" s="2"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:22">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -3445,7 +3707,7 @@
       <c r="U82" s="2"/>
       <c r="V82" s="2"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:22">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -3469,7 +3731,7 @@
       <c r="U83" s="2"/>
       <c r="V83" s="2"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:22">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -3493,7 +3755,7 @@
       <c r="U84" s="2"/>
       <c r="V84" s="2"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:22">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -3517,7 +3779,7 @@
       <c r="U85" s="2"/>
       <c r="V85" s="2"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:22">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -3541,7 +3803,7 @@
       <c r="U86" s="2"/>
       <c r="V86" s="2"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:22">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -3565,7 +3827,7 @@
       <c r="U87" s="2"/>
       <c r="V87" s="2"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:22">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -3589,7 +3851,7 @@
       <c r="U88" s="2"/>
       <c r="V88" s="2"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:22">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -3613,7 +3875,7 @@
       <c r="U89" s="2"/>
       <c r="V89" s="2"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:22">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -3637,7 +3899,7 @@
       <c r="U90" s="2"/>
       <c r="V90" s="2"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:22">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -3661,7 +3923,7 @@
       <c r="U91" s="2"/>
       <c r="V91" s="2"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:22">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -3685,7 +3947,7 @@
       <c r="U92" s="2"/>
       <c r="V92" s="2"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:22">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -3709,7 +3971,7 @@
       <c r="U93" s="2"/>
       <c r="V93" s="2"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:22">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -3733,7 +3995,7 @@
       <c r="U94" s="2"/>
       <c r="V94" s="2"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:22">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -3757,7 +4019,7 @@
       <c r="U95" s="2"/>
       <c r="V95" s="2"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:22">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -3781,7 +4043,7 @@
       <c r="U96" s="2"/>
       <c r="V96" s="2"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:22">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -3805,7 +4067,7 @@
       <c r="U97" s="2"/>
       <c r="V97" s="2"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:22">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -3829,7 +4091,7 @@
       <c r="U98" s="2"/>
       <c r="V98" s="2"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:22">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -3853,7 +4115,7 @@
       <c r="U99" s="2"/>
       <c r="V99" s="2"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:22">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -3877,7 +4139,7 @@
       <c r="U100" s="2"/>
       <c r="V100" s="2"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:22">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -3901,7 +4163,7 @@
       <c r="U101" s="2"/>
       <c r="V101" s="2"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:22">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -3925,7 +4187,7 @@
       <c r="U102" s="2"/>
       <c r="V102" s="2"/>
     </row>
-    <row r="103">
+    <row r="103" spans="1:22">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -3949,7 +4211,7 @@
       <c r="U103" s="2"/>
       <c r="V103" s="2"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:22">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -3973,7 +4235,7 @@
       <c r="U104" s="2"/>
       <c r="V104" s="2"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:22">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -3997,7 +4259,7 @@
       <c r="U105" s="2"/>
       <c r="V105" s="2"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:22">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -4021,7 +4283,7 @@
       <c r="U106" s="2"/>
       <c r="V106" s="2"/>
     </row>
-    <row r="107">
+    <row r="107" spans="1:22">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -4045,7 +4307,7 @@
       <c r="U107" s="2"/>
       <c r="V107" s="2"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:22">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -4069,7 +4331,7 @@
       <c r="U108" s="2"/>
       <c r="V108" s="2"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:22">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -4093,7 +4355,7 @@
       <c r="U109" s="2"/>
       <c r="V109" s="2"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:22">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -4117,7 +4379,7 @@
       <c r="U110" s="2"/>
       <c r="V110" s="2"/>
     </row>
-    <row r="111">
+    <row r="111" spans="1:22">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -4141,7 +4403,7 @@
       <c r="U111" s="2"/>
       <c r="V111" s="2"/>
     </row>
-    <row r="112">
+    <row r="112" spans="1:22">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -4165,7 +4427,7 @@
       <c r="U112" s="2"/>
       <c r="V112" s="2"/>
     </row>
-    <row r="113">
+    <row r="113" spans="1:22">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -4189,7 +4451,7 @@
       <c r="U113" s="2"/>
       <c r="V113" s="2"/>
     </row>
-    <row r="114">
+    <row r="114" spans="1:22">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -4213,7 +4475,7 @@
       <c r="U114" s="2"/>
       <c r="V114" s="2"/>
     </row>
-    <row r="115">
+    <row r="115" spans="1:22">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -4237,7 +4499,7 @@
       <c r="U115" s="2"/>
       <c r="V115" s="2"/>
     </row>
-    <row r="116">
+    <row r="116" spans="1:22">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -4261,7 +4523,7 @@
       <c r="U116" s="2"/>
       <c r="V116" s="2"/>
     </row>
-    <row r="117">
+    <row r="117" spans="1:22">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -4285,7 +4547,7 @@
       <c r="U117" s="2"/>
       <c r="V117" s="2"/>
     </row>
-    <row r="118">
+    <row r="118" spans="1:22">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -4309,7 +4571,7 @@
       <c r="U118" s="2"/>
       <c r="V118" s="2"/>
     </row>
-    <row r="119">
+    <row r="119" spans="1:22">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -4333,7 +4595,7 @@
       <c r="U119" s="2"/>
       <c r="V119" s="2"/>
     </row>
-    <row r="120">
+    <row r="120" spans="1:22">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -4357,7 +4619,7 @@
       <c r="U120" s="2"/>
       <c r="V120" s="2"/>
     </row>
-    <row r="121">
+    <row r="121" spans="1:22">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -4381,7 +4643,7 @@
       <c r="U121" s="2"/>
       <c r="V121" s="2"/>
     </row>
-    <row r="122">
+    <row r="122" spans="1:22">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -4405,7 +4667,7 @@
       <c r="U122" s="2"/>
       <c r="V122" s="2"/>
     </row>
-    <row r="123">
+    <row r="123" spans="1:22">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -4429,7 +4691,7 @@
       <c r="U123" s="2"/>
       <c r="V123" s="2"/>
     </row>
-    <row r="124">
+    <row r="124" spans="1:22">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -4453,2633 +4715,2633 @@
       <c r="U124" s="2"/>
       <c r="V124" s="2"/>
     </row>
-    <row r="125">
+    <row r="125" spans="1:22">
       <c r="V125" s="2"/>
     </row>
-    <row r="126">
+    <row r="126" spans="1:22">
       <c r="V126" s="2"/>
     </row>
-    <row r="127">
+    <row r="127" spans="1:22">
       <c r="V127" s="2"/>
     </row>
-    <row r="128">
+    <row r="128" spans="1:22">
       <c r="V128" s="2"/>
     </row>
-    <row r="129">
+    <row r="129" spans="22:22">
       <c r="V129" s="2"/>
     </row>
-    <row r="130">
+    <row r="130" spans="22:22">
       <c r="V130" s="2"/>
     </row>
-    <row r="131">
+    <row r="131" spans="22:22">
       <c r="V131" s="2"/>
     </row>
-    <row r="132">
+    <row r="132" spans="22:22">
       <c r="V132" s="2"/>
     </row>
-    <row r="133">
+    <row r="133" spans="22:22">
       <c r="V133" s="2"/>
     </row>
-    <row r="134">
+    <row r="134" spans="22:22">
       <c r="V134" s="2"/>
     </row>
-    <row r="135">
+    <row r="135" spans="22:22">
       <c r="V135" s="2"/>
     </row>
-    <row r="136">
+    <row r="136" spans="22:22">
       <c r="V136" s="2"/>
     </row>
-    <row r="137">
+    <row r="137" spans="22:22">
       <c r="V137" s="2"/>
     </row>
-    <row r="138">
+    <row r="138" spans="22:22">
       <c r="V138" s="2"/>
     </row>
-    <row r="139">
+    <row r="139" spans="22:22">
       <c r="V139" s="2"/>
     </row>
-    <row r="140">
+    <row r="140" spans="22:22">
       <c r="V140" s="2"/>
     </row>
-    <row r="141">
+    <row r="141" spans="22:22">
       <c r="V141" s="2"/>
     </row>
-    <row r="142">
+    <row r="142" spans="22:22">
       <c r="V142" s="2"/>
     </row>
-    <row r="143">
+    <row r="143" spans="22:22">
       <c r="V143" s="2"/>
     </row>
-    <row r="144">
+    <row r="144" spans="22:22">
       <c r="V144" s="2"/>
     </row>
-    <row r="145">
+    <row r="145" spans="22:22">
       <c r="V145" s="2"/>
     </row>
-    <row r="146">
+    <row r="146" spans="22:22">
       <c r="V146" s="2"/>
     </row>
-    <row r="147">
+    <row r="147" spans="22:22">
       <c r="V147" s="2"/>
     </row>
-    <row r="148">
+    <row r="148" spans="22:22">
       <c r="V148" s="2"/>
     </row>
-    <row r="149">
+    <row r="149" spans="22:22">
       <c r="V149" s="2"/>
     </row>
-    <row r="150">
+    <row r="150" spans="22:22">
       <c r="V150" s="2"/>
     </row>
-    <row r="151">
+    <row r="151" spans="22:22">
       <c r="V151" s="2"/>
     </row>
-    <row r="152">
+    <row r="152" spans="22:22">
       <c r="V152" s="2"/>
     </row>
-    <row r="153">
+    <row r="153" spans="22:22">
       <c r="V153" s="2"/>
     </row>
-    <row r="154">
+    <row r="154" spans="22:22">
       <c r="V154" s="2"/>
     </row>
-    <row r="155">
+    <row r="155" spans="22:22">
       <c r="V155" s="2"/>
     </row>
-    <row r="156">
+    <row r="156" spans="22:22">
       <c r="V156" s="2"/>
     </row>
-    <row r="157">
+    <row r="157" spans="22:22">
       <c r="V157" s="2"/>
     </row>
-    <row r="158">
+    <row r="158" spans="22:22">
       <c r="V158" s="2"/>
     </row>
-    <row r="159">
+    <row r="159" spans="22:22">
       <c r="V159" s="2"/>
     </row>
-    <row r="160">
+    <row r="160" spans="22:22">
       <c r="V160" s="2"/>
     </row>
-    <row r="161">
+    <row r="161" spans="22:22">
       <c r="V161" s="2"/>
     </row>
-    <row r="162">
+    <row r="162" spans="22:22">
       <c r="V162" s="2"/>
     </row>
-    <row r="163">
+    <row r="163" spans="22:22">
       <c r="V163" s="2"/>
     </row>
-    <row r="164">
+    <row r="164" spans="22:22">
       <c r="V164" s="2"/>
     </row>
-    <row r="165">
+    <row r="165" spans="22:22">
       <c r="V165" s="2"/>
     </row>
-    <row r="166">
+    <row r="166" spans="22:22">
       <c r="V166" s="2"/>
     </row>
-    <row r="167">
+    <row r="167" spans="22:22">
       <c r="V167" s="2"/>
     </row>
-    <row r="168">
+    <row r="168" spans="22:22">
       <c r="V168" s="2"/>
     </row>
-    <row r="169">
+    <row r="169" spans="22:22">
       <c r="V169" s="2"/>
     </row>
-    <row r="170">
+    <row r="170" spans="22:22">
       <c r="V170" s="2"/>
     </row>
-    <row r="171">
+    <row r="171" spans="22:22">
       <c r="V171" s="2"/>
     </row>
-    <row r="172">
+    <row r="172" spans="22:22">
       <c r="V172" s="2"/>
     </row>
-    <row r="173">
+    <row r="173" spans="22:22">
       <c r="V173" s="2"/>
     </row>
-    <row r="174">
+    <row r="174" spans="22:22">
       <c r="V174" s="2"/>
     </row>
-    <row r="175">
+    <row r="175" spans="22:22">
       <c r="V175" s="2"/>
     </row>
-    <row r="176">
+    <row r="176" spans="22:22">
       <c r="V176" s="2"/>
     </row>
-    <row r="177">
+    <row r="177" spans="22:22">
       <c r="V177" s="2"/>
     </row>
-    <row r="178">
+    <row r="178" spans="22:22">
       <c r="V178" s="2"/>
     </row>
-    <row r="179">
+    <row r="179" spans="22:22">
       <c r="V179" s="2"/>
     </row>
-    <row r="180">
+    <row r="180" spans="22:22">
       <c r="V180" s="2"/>
     </row>
-    <row r="181">
+    <row r="181" spans="22:22">
       <c r="V181" s="2"/>
     </row>
-    <row r="182">
+    <row r="182" spans="22:22">
       <c r="V182" s="2"/>
     </row>
-    <row r="183">
+    <row r="183" spans="22:22">
       <c r="V183" s="2"/>
     </row>
-    <row r="184">
+    <row r="184" spans="22:22">
       <c r="V184" s="2"/>
     </row>
-    <row r="185">
+    <row r="185" spans="22:22">
       <c r="V185" s="2"/>
     </row>
-    <row r="186">
+    <row r="186" spans="22:22">
       <c r="V186" s="2"/>
     </row>
-    <row r="187">
+    <row r="187" spans="22:22">
       <c r="V187" s="2"/>
     </row>
-    <row r="188">
+    <row r="188" spans="22:22">
       <c r="V188" s="2"/>
     </row>
-    <row r="189">
+    <row r="189" spans="22:22">
       <c r="V189" s="2"/>
     </row>
-    <row r="190">
+    <row r="190" spans="22:22">
       <c r="V190" s="2"/>
     </row>
-    <row r="191">
+    <row r="191" spans="22:22">
       <c r="V191" s="2"/>
     </row>
-    <row r="192">
+    <row r="192" spans="22:22">
       <c r="V192" s="2"/>
     </row>
-    <row r="193">
+    <row r="193" spans="22:22">
       <c r="V193" s="2"/>
     </row>
-    <row r="194">
+    <row r="194" spans="22:22">
       <c r="V194" s="2"/>
     </row>
-    <row r="195">
+    <row r="195" spans="22:22">
       <c r="V195" s="2"/>
     </row>
-    <row r="196">
+    <row r="196" spans="22:22">
       <c r="V196" s="2"/>
     </row>
-    <row r="197">
+    <row r="197" spans="22:22">
       <c r="V197" s="2"/>
     </row>
-    <row r="198">
+    <row r="198" spans="22:22">
       <c r="V198" s="2"/>
     </row>
-    <row r="199">
+    <row r="199" spans="22:22">
       <c r="V199" s="2"/>
     </row>
-    <row r="200">
+    <row r="200" spans="22:22">
       <c r="V200" s="2"/>
     </row>
-    <row r="201">
+    <row r="201" spans="22:22">
       <c r="V201" s="2"/>
     </row>
-    <row r="202">
+    <row r="202" spans="22:22">
       <c r="V202" s="2"/>
     </row>
-    <row r="203">
+    <row r="203" spans="22:22">
       <c r="V203" s="2"/>
     </row>
-    <row r="204">
+    <row r="204" spans="22:22">
       <c r="V204" s="2"/>
     </row>
-    <row r="205">
+    <row r="205" spans="22:22">
       <c r="V205" s="2"/>
     </row>
-    <row r="206">
+    <row r="206" spans="22:22">
       <c r="V206" s="2"/>
     </row>
-    <row r="207">
+    <row r="207" spans="22:22">
       <c r="V207" s="2"/>
     </row>
-    <row r="208">
+    <row r="208" spans="22:22">
       <c r="V208" s="2"/>
     </row>
-    <row r="209">
+    <row r="209" spans="22:22">
       <c r="V209" s="2"/>
     </row>
-    <row r="210">
+    <row r="210" spans="22:22">
       <c r="V210" s="2"/>
     </row>
-    <row r="211">
+    <row r="211" spans="22:22">
       <c r="V211" s="2"/>
     </row>
-    <row r="212">
+    <row r="212" spans="22:22">
       <c r="V212" s="2"/>
     </row>
-    <row r="213">
+    <row r="213" spans="22:22">
       <c r="V213" s="2"/>
     </row>
-    <row r="214">
+    <row r="214" spans="22:22">
       <c r="V214" s="2"/>
     </row>
-    <row r="215">
+    <row r="215" spans="22:22">
       <c r="V215" s="2"/>
     </row>
-    <row r="216">
+    <row r="216" spans="22:22">
       <c r="V216" s="2"/>
     </row>
-    <row r="217">
+    <row r="217" spans="22:22">
       <c r="V217" s="2"/>
     </row>
-    <row r="218">
+    <row r="218" spans="22:22">
       <c r="V218" s="2"/>
     </row>
-    <row r="219">
+    <row r="219" spans="22:22">
       <c r="V219" s="2"/>
     </row>
-    <row r="220">
+    <row r="220" spans="22:22">
       <c r="V220" s="2"/>
     </row>
-    <row r="221">
+    <row r="221" spans="22:22">
       <c r="V221" s="2"/>
     </row>
-    <row r="222">
+    <row r="222" spans="22:22">
       <c r="V222" s="2"/>
     </row>
-    <row r="223">
+    <row r="223" spans="22:22">
       <c r="V223" s="2"/>
     </row>
-    <row r="224">
+    <row r="224" spans="22:22">
       <c r="V224" s="2"/>
     </row>
-    <row r="225">
+    <row r="225" spans="22:22">
       <c r="V225" s="2"/>
     </row>
-    <row r="226">
+    <row r="226" spans="22:22">
       <c r="V226" s="2"/>
     </row>
-    <row r="227">
+    <row r="227" spans="22:22">
       <c r="V227" s="2"/>
     </row>
-    <row r="228">
+    <row r="228" spans="22:22">
       <c r="V228" s="2"/>
     </row>
-    <row r="229">
+    <row r="229" spans="22:22">
       <c r="V229" s="2"/>
     </row>
-    <row r="230">
+    <row r="230" spans="22:22">
       <c r="V230" s="2"/>
     </row>
-    <row r="231">
+    <row r="231" spans="22:22">
       <c r="V231" s="2"/>
     </row>
-    <row r="232">
+    <row r="232" spans="22:22">
       <c r="V232" s="2"/>
     </row>
-    <row r="233">
+    <row r="233" spans="22:22">
       <c r="V233" s="2"/>
     </row>
-    <row r="234">
+    <row r="234" spans="22:22">
       <c r="V234" s="2"/>
     </row>
-    <row r="235">
+    <row r="235" spans="22:22">
       <c r="V235" s="2"/>
     </row>
-    <row r="236">
+    <row r="236" spans="22:22">
       <c r="V236" s="2"/>
     </row>
-    <row r="237">
+    <row r="237" spans="22:22">
       <c r="V237" s="2"/>
     </row>
-    <row r="238">
+    <row r="238" spans="22:22">
       <c r="V238" s="2"/>
     </row>
-    <row r="239">
+    <row r="239" spans="22:22">
       <c r="V239" s="2"/>
     </row>
-    <row r="240">
+    <row r="240" spans="22:22">
       <c r="V240" s="2"/>
     </row>
-    <row r="241">
+    <row r="241" spans="22:22">
       <c r="V241" s="2"/>
     </row>
-    <row r="242">
+    <row r="242" spans="22:22">
       <c r="V242" s="2"/>
     </row>
-    <row r="243">
+    <row r="243" spans="22:22">
       <c r="V243" s="2"/>
     </row>
-    <row r="244">
+    <row r="244" spans="22:22">
       <c r="V244" s="2"/>
     </row>
-    <row r="245">
+    <row r="245" spans="22:22">
       <c r="V245" s="2"/>
     </row>
-    <row r="246">
+    <row r="246" spans="22:22">
       <c r="V246" s="2"/>
     </row>
-    <row r="247">
+    <row r="247" spans="22:22">
       <c r="V247" s="2"/>
     </row>
-    <row r="248">
+    <row r="248" spans="22:22">
       <c r="V248" s="2"/>
     </row>
-    <row r="249">
+    <row r="249" spans="22:22">
       <c r="V249" s="2"/>
     </row>
-    <row r="250">
+    <row r="250" spans="22:22">
       <c r="V250" s="2"/>
     </row>
-    <row r="251">
+    <row r="251" spans="22:22">
       <c r="V251" s="2"/>
     </row>
-    <row r="252">
+    <row r="252" spans="22:22">
       <c r="V252" s="2"/>
     </row>
-    <row r="253">
+    <row r="253" spans="22:22">
       <c r="V253" s="2"/>
     </row>
-    <row r="254">
+    <row r="254" spans="22:22">
       <c r="V254" s="2"/>
     </row>
-    <row r="255">
+    <row r="255" spans="22:22">
       <c r="V255" s="2"/>
     </row>
-    <row r="256">
+    <row r="256" spans="22:22">
       <c r="V256" s="2"/>
     </row>
-    <row r="257">
+    <row r="257" spans="22:22">
       <c r="V257" s="2"/>
     </row>
-    <row r="258">
+    <row r="258" spans="22:22">
       <c r="V258" s="2"/>
     </row>
-    <row r="259">
+    <row r="259" spans="22:22">
       <c r="V259" s="2"/>
     </row>
-    <row r="260">
+    <row r="260" spans="22:22">
       <c r="V260" s="2"/>
     </row>
-    <row r="261">
+    <row r="261" spans="22:22">
       <c r="V261" s="2"/>
     </row>
-    <row r="262">
+    <row r="262" spans="22:22">
       <c r="V262" s="2"/>
     </row>
-    <row r="263">
+    <row r="263" spans="22:22">
       <c r="V263" s="2"/>
     </row>
-    <row r="264">
+    <row r="264" spans="22:22">
       <c r="V264" s="2"/>
     </row>
-    <row r="265">
+    <row r="265" spans="22:22">
       <c r="V265" s="2"/>
     </row>
-    <row r="266">
+    <row r="266" spans="22:22">
       <c r="V266" s="2"/>
     </row>
-    <row r="267">
+    <row r="267" spans="22:22">
       <c r="V267" s="2"/>
     </row>
-    <row r="268">
+    <row r="268" spans="22:22">
       <c r="V268" s="2"/>
     </row>
-    <row r="269">
+    <row r="269" spans="22:22">
       <c r="V269" s="2"/>
     </row>
-    <row r="270">
+    <row r="270" spans="22:22">
       <c r="V270" s="2"/>
     </row>
-    <row r="271">
+    <row r="271" spans="22:22">
       <c r="V271" s="2"/>
     </row>
-    <row r="272">
+    <row r="272" spans="22:22">
       <c r="V272" s="2"/>
     </row>
-    <row r="273">
+    <row r="273" spans="22:22">
       <c r="V273" s="2"/>
     </row>
-    <row r="274">
+    <row r="274" spans="22:22">
       <c r="V274" s="2"/>
     </row>
-    <row r="275">
+    <row r="275" spans="22:22">
       <c r="V275" s="2"/>
     </row>
-    <row r="276">
+    <row r="276" spans="22:22">
       <c r="V276" s="2"/>
     </row>
-    <row r="277">
+    <row r="277" spans="22:22">
       <c r="V277" s="2"/>
     </row>
-    <row r="278">
+    <row r="278" spans="22:22">
       <c r="V278" s="2"/>
     </row>
-    <row r="279">
+    <row r="279" spans="22:22">
       <c r="V279" s="2"/>
     </row>
-    <row r="280">
+    <row r="280" spans="22:22">
       <c r="V280" s="2"/>
     </row>
-    <row r="281">
+    <row r="281" spans="22:22">
       <c r="V281" s="2"/>
     </row>
-    <row r="282">
+    <row r="282" spans="22:22">
       <c r="V282" s="2"/>
     </row>
-    <row r="283">
+    <row r="283" spans="22:22">
       <c r="V283" s="2"/>
     </row>
-    <row r="284">
+    <row r="284" spans="22:22">
       <c r="V284" s="2"/>
     </row>
-    <row r="285">
+    <row r="285" spans="22:22">
       <c r="V285" s="2"/>
     </row>
-    <row r="286">
+    <row r="286" spans="22:22">
       <c r="V286" s="2"/>
     </row>
-    <row r="287">
+    <row r="287" spans="22:22">
       <c r="V287" s="2"/>
     </row>
-    <row r="288">
+    <row r="288" spans="22:22">
       <c r="V288" s="2"/>
     </row>
-    <row r="289">
+    <row r="289" spans="22:22">
       <c r="V289" s="2"/>
     </row>
-    <row r="290">
+    <row r="290" spans="22:22">
       <c r="V290" s="2"/>
     </row>
-    <row r="291">
+    <row r="291" spans="22:22">
       <c r="V291" s="2"/>
     </row>
-    <row r="292">
+    <row r="292" spans="22:22">
       <c r="V292" s="2"/>
     </row>
-    <row r="293">
+    <row r="293" spans="22:22">
       <c r="V293" s="2"/>
     </row>
-    <row r="294">
+    <row r="294" spans="22:22">
       <c r="V294" s="2"/>
     </row>
-    <row r="295">
+    <row r="295" spans="22:22">
       <c r="V295" s="2"/>
     </row>
-    <row r="296">
+    <row r="296" spans="22:22">
       <c r="V296" s="2"/>
     </row>
-    <row r="297">
+    <row r="297" spans="22:22">
       <c r="V297" s="2"/>
     </row>
-    <row r="298">
+    <row r="298" spans="22:22">
       <c r="V298" s="2"/>
     </row>
-    <row r="299">
+    <row r="299" spans="22:22">
       <c r="V299" s="2"/>
     </row>
-    <row r="300">
+    <row r="300" spans="22:22">
       <c r="V300" s="2"/>
     </row>
-    <row r="301">
+    <row r="301" spans="22:22">
       <c r="V301" s="2"/>
     </row>
-    <row r="302">
+    <row r="302" spans="22:22">
       <c r="V302" s="2"/>
     </row>
-    <row r="303">
+    <row r="303" spans="22:22">
       <c r="V303" s="2"/>
     </row>
-    <row r="304">
+    <row r="304" spans="22:22">
       <c r="V304" s="2"/>
     </row>
-    <row r="305">
+    <row r="305" spans="22:22">
       <c r="V305" s="2"/>
     </row>
-    <row r="306">
+    <row r="306" spans="22:22">
       <c r="V306" s="2"/>
     </row>
-    <row r="307">
+    <row r="307" spans="22:22">
       <c r="V307" s="2"/>
     </row>
-    <row r="308">
+    <row r="308" spans="22:22">
       <c r="V308" s="2"/>
     </row>
-    <row r="309">
+    <row r="309" spans="22:22">
       <c r="V309" s="2"/>
     </row>
-    <row r="310">
+    <row r="310" spans="22:22">
       <c r="V310" s="2"/>
     </row>
-    <row r="311">
+    <row r="311" spans="22:22">
       <c r="V311" s="2"/>
     </row>
-    <row r="312">
+    <row r="312" spans="22:22">
       <c r="V312" s="2"/>
     </row>
-    <row r="313">
+    <row r="313" spans="22:22">
       <c r="V313" s="2"/>
     </row>
-    <row r="314">
+    <row r="314" spans="22:22">
       <c r="V314" s="2"/>
     </row>
-    <row r="315">
+    <row r="315" spans="22:22">
       <c r="V315" s="2"/>
     </row>
-    <row r="316">
+    <row r="316" spans="22:22">
       <c r="V316" s="2"/>
     </row>
-    <row r="317">
+    <row r="317" spans="22:22">
       <c r="V317" s="2"/>
     </row>
-    <row r="318">
+    <row r="318" spans="22:22">
       <c r="V318" s="2"/>
     </row>
-    <row r="319">
+    <row r="319" spans="22:22">
       <c r="V319" s="2"/>
     </row>
-    <row r="320">
+    <row r="320" spans="22:22">
       <c r="V320" s="2"/>
     </row>
-    <row r="321">
+    <row r="321" spans="22:22">
       <c r="V321" s="2"/>
     </row>
-    <row r="322">
+    <row r="322" spans="22:22">
       <c r="V322" s="2"/>
     </row>
-    <row r="323">
+    <row r="323" spans="22:22">
       <c r="V323" s="2"/>
     </row>
-    <row r="324">
+    <row r="324" spans="22:22">
       <c r="V324" s="2"/>
     </row>
-    <row r="325">
+    <row r="325" spans="22:22">
       <c r="V325" s="2"/>
     </row>
-    <row r="326">
+    <row r="326" spans="22:22">
       <c r="V326" s="2"/>
     </row>
-    <row r="327">
+    <row r="327" spans="22:22">
       <c r="V327" s="2"/>
     </row>
-    <row r="328">
+    <row r="328" spans="22:22">
       <c r="V328" s="2"/>
     </row>
-    <row r="329">
+    <row r="329" spans="22:22">
       <c r="V329" s="2"/>
     </row>
-    <row r="330">
+    <row r="330" spans="22:22">
       <c r="V330" s="2"/>
     </row>
-    <row r="331">
+    <row r="331" spans="22:22">
       <c r="V331" s="2"/>
     </row>
-    <row r="332">
+    <row r="332" spans="22:22">
       <c r="V332" s="2"/>
     </row>
-    <row r="333">
+    <row r="333" spans="22:22">
       <c r="V333" s="2"/>
     </row>
-    <row r="334">
+    <row r="334" spans="22:22">
       <c r="V334" s="2"/>
     </row>
-    <row r="335">
+    <row r="335" spans="22:22">
       <c r="V335" s="2"/>
     </row>
-    <row r="336">
+    <row r="336" spans="22:22">
       <c r="V336" s="2"/>
     </row>
-    <row r="337">
+    <row r="337" spans="22:22">
       <c r="V337" s="2"/>
     </row>
-    <row r="338">
+    <row r="338" spans="22:22">
       <c r="V338" s="2"/>
     </row>
-    <row r="339">
+    <row r="339" spans="22:22">
       <c r="V339" s="2"/>
     </row>
-    <row r="340">
+    <row r="340" spans="22:22">
       <c r="V340" s="2"/>
     </row>
-    <row r="341">
+    <row r="341" spans="22:22">
       <c r="V341" s="2"/>
     </row>
-    <row r="342">
+    <row r="342" spans="22:22">
       <c r="V342" s="2"/>
     </row>
-    <row r="343">
+    <row r="343" spans="22:22">
       <c r="V343" s="2"/>
     </row>
-    <row r="344">
+    <row r="344" spans="22:22">
       <c r="V344" s="2"/>
     </row>
-    <row r="345">
+    <row r="345" spans="22:22">
       <c r="V345" s="2"/>
     </row>
-    <row r="346">
+    <row r="346" spans="22:22">
       <c r="V346" s="2"/>
     </row>
-    <row r="347">
+    <row r="347" spans="22:22">
       <c r="V347" s="2"/>
     </row>
-    <row r="348">
+    <row r="348" spans="22:22">
       <c r="V348" s="2"/>
     </row>
-    <row r="349">
+    <row r="349" spans="22:22">
       <c r="V349" s="2"/>
     </row>
-    <row r="350">
+    <row r="350" spans="22:22">
       <c r="V350" s="2"/>
     </row>
-    <row r="351">
+    <row r="351" spans="22:22">
       <c r="V351" s="2"/>
     </row>
-    <row r="352">
+    <row r="352" spans="22:22">
       <c r="V352" s="2"/>
     </row>
-    <row r="353">
+    <row r="353" spans="22:22">
       <c r="V353" s="2"/>
     </row>
-    <row r="354">
+    <row r="354" spans="22:22">
       <c r="V354" s="2"/>
     </row>
-    <row r="355">
+    <row r="355" spans="22:22">
       <c r="V355" s="2"/>
     </row>
-    <row r="356">
+    <row r="356" spans="22:22">
       <c r="V356" s="2"/>
     </row>
-    <row r="357">
+    <row r="357" spans="22:22">
       <c r="V357" s="2"/>
     </row>
-    <row r="358">
+    <row r="358" spans="22:22">
       <c r="V358" s="2"/>
     </row>
-    <row r="359">
+    <row r="359" spans="22:22">
       <c r="V359" s="2"/>
     </row>
-    <row r="360">
+    <row r="360" spans="22:22">
       <c r="V360" s="2"/>
     </row>
-    <row r="361">
+    <row r="361" spans="22:22">
       <c r="V361" s="2"/>
     </row>
-    <row r="362">
+    <row r="362" spans="22:22">
       <c r="V362" s="2"/>
     </row>
-    <row r="363">
+    <row r="363" spans="22:22">
       <c r="V363" s="2"/>
     </row>
-    <row r="364">
+    <row r="364" spans="22:22">
       <c r="V364" s="2"/>
     </row>
-    <row r="365">
+    <row r="365" spans="22:22">
       <c r="V365" s="2"/>
     </row>
-    <row r="366">
+    <row r="366" spans="22:22">
       <c r="V366" s="2"/>
     </row>
-    <row r="367">
+    <row r="367" spans="22:22">
       <c r="V367" s="2"/>
     </row>
-    <row r="368">
+    <row r="368" spans="22:22">
       <c r="V368" s="2"/>
     </row>
-    <row r="369">
+    <row r="369" spans="22:22">
       <c r="V369" s="2"/>
     </row>
-    <row r="370">
+    <row r="370" spans="22:22">
       <c r="V370" s="2"/>
     </row>
-    <row r="371">
+    <row r="371" spans="22:22">
       <c r="V371" s="2"/>
     </row>
-    <row r="372">
+    <row r="372" spans="22:22">
       <c r="V372" s="2"/>
     </row>
-    <row r="373">
+    <row r="373" spans="22:22">
       <c r="V373" s="2"/>
     </row>
-    <row r="374">
+    <row r="374" spans="22:22">
       <c r="V374" s="2"/>
     </row>
-    <row r="375">
+    <row r="375" spans="22:22">
       <c r="V375" s="2"/>
     </row>
-    <row r="376">
+    <row r="376" spans="22:22">
       <c r="V376" s="2"/>
     </row>
-    <row r="377">
+    <row r="377" spans="22:22">
       <c r="V377" s="2"/>
     </row>
-    <row r="378">
+    <row r="378" spans="22:22">
       <c r="V378" s="2"/>
     </row>
-    <row r="379">
+    <row r="379" spans="22:22">
       <c r="V379" s="2"/>
     </row>
-    <row r="380">
+    <row r="380" spans="22:22">
       <c r="V380" s="2"/>
     </row>
-    <row r="381">
+    <row r="381" spans="22:22">
       <c r="V381" s="2"/>
     </row>
-    <row r="382">
+    <row r="382" spans="22:22">
       <c r="V382" s="2"/>
     </row>
-    <row r="383">
+    <row r="383" spans="22:22">
       <c r="V383" s="2"/>
     </row>
-    <row r="384">
+    <row r="384" spans="22:22">
       <c r="V384" s="2"/>
     </row>
-    <row r="385">
+    <row r="385" spans="22:22">
       <c r="V385" s="2"/>
     </row>
-    <row r="386">
+    <row r="386" spans="22:22">
       <c r="V386" s="2"/>
     </row>
-    <row r="387">
+    <row r="387" spans="22:22">
       <c r="V387" s="2"/>
     </row>
-    <row r="388">
+    <row r="388" spans="22:22">
       <c r="V388" s="2"/>
     </row>
-    <row r="389">
+    <row r="389" spans="22:22">
       <c r="V389" s="2"/>
     </row>
-    <row r="390">
+    <row r="390" spans="22:22">
       <c r="V390" s="2"/>
     </row>
-    <row r="391">
+    <row r="391" spans="22:22">
       <c r="V391" s="2"/>
     </row>
-    <row r="392">
+    <row r="392" spans="22:22">
       <c r="V392" s="2"/>
     </row>
-    <row r="393">
+    <row r="393" spans="22:22">
       <c r="V393" s="2"/>
     </row>
-    <row r="394">
+    <row r="394" spans="22:22">
       <c r="V394" s="2"/>
     </row>
-    <row r="395">
+    <row r="395" spans="22:22">
       <c r="V395" s="2"/>
     </row>
-    <row r="396">
+    <row r="396" spans="22:22">
       <c r="V396" s="2"/>
     </row>
-    <row r="397">
+    <row r="397" spans="22:22">
       <c r="V397" s="2"/>
     </row>
-    <row r="398">
+    <row r="398" spans="22:22">
       <c r="V398" s="2"/>
     </row>
-    <row r="399">
+    <row r="399" spans="22:22">
       <c r="V399" s="2"/>
     </row>
-    <row r="400">
+    <row r="400" spans="22:22">
       <c r="V400" s="2"/>
     </row>
-    <row r="401">
+    <row r="401" spans="22:22">
       <c r="V401" s="2"/>
     </row>
-    <row r="402">
+    <row r="402" spans="22:22">
       <c r="V402" s="2"/>
     </row>
-    <row r="403">
+    <row r="403" spans="22:22">
       <c r="V403" s="2"/>
     </row>
-    <row r="404">
+    <row r="404" spans="22:22">
       <c r="V404" s="2"/>
     </row>
-    <row r="405">
+    <row r="405" spans="22:22">
       <c r="V405" s="2"/>
     </row>
-    <row r="406">
+    <row r="406" spans="22:22">
       <c r="V406" s="2"/>
     </row>
-    <row r="407">
+    <row r="407" spans="22:22">
       <c r="V407" s="2"/>
     </row>
-    <row r="408">
+    <row r="408" spans="22:22">
       <c r="V408" s="2"/>
     </row>
-    <row r="409">
+    <row r="409" spans="22:22">
       <c r="V409" s="2"/>
     </row>
-    <row r="410">
+    <row r="410" spans="22:22">
       <c r="V410" s="2"/>
     </row>
-    <row r="411">
+    <row r="411" spans="22:22">
       <c r="V411" s="2"/>
     </row>
-    <row r="412">
+    <row r="412" spans="22:22">
       <c r="V412" s="2"/>
     </row>
-    <row r="413">
+    <row r="413" spans="22:22">
       <c r="V413" s="2"/>
     </row>
-    <row r="414">
+    <row r="414" spans="22:22">
       <c r="V414" s="2"/>
     </row>
-    <row r="415">
+    <row r="415" spans="22:22">
       <c r="V415" s="2"/>
     </row>
-    <row r="416">
+    <row r="416" spans="22:22">
       <c r="V416" s="2"/>
     </row>
-    <row r="417">
+    <row r="417" spans="22:22">
       <c r="V417" s="2"/>
     </row>
-    <row r="418">
+    <row r="418" spans="22:22">
       <c r="V418" s="2"/>
     </row>
-    <row r="419">
+    <row r="419" spans="22:22">
       <c r="V419" s="2"/>
     </row>
-    <row r="420">
+    <row r="420" spans="22:22">
       <c r="V420" s="2"/>
     </row>
-    <row r="421">
+    <row r="421" spans="22:22">
       <c r="V421" s="2"/>
     </row>
-    <row r="422">
+    <row r="422" spans="22:22">
       <c r="V422" s="2"/>
     </row>
-    <row r="423">
+    <row r="423" spans="22:22">
       <c r="V423" s="2"/>
     </row>
-    <row r="424">
+    <row r="424" spans="22:22">
       <c r="V424" s="2"/>
     </row>
-    <row r="425">
+    <row r="425" spans="22:22">
       <c r="V425" s="2"/>
     </row>
-    <row r="426">
+    <row r="426" spans="22:22">
       <c r="V426" s="2"/>
     </row>
-    <row r="427">
+    <row r="427" spans="22:22">
       <c r="V427" s="2"/>
     </row>
-    <row r="428">
+    <row r="428" spans="22:22">
       <c r="V428" s="2"/>
     </row>
-    <row r="429">
+    <row r="429" spans="22:22">
       <c r="V429" s="2"/>
     </row>
-    <row r="430">
+    <row r="430" spans="22:22">
       <c r="V430" s="2"/>
     </row>
-    <row r="431">
+    <row r="431" spans="22:22">
       <c r="V431" s="2"/>
     </row>
-    <row r="432">
+    <row r="432" spans="22:22">
       <c r="V432" s="2"/>
     </row>
-    <row r="433">
+    <row r="433" spans="22:22">
       <c r="V433" s="2"/>
     </row>
-    <row r="434">
+    <row r="434" spans="22:22">
       <c r="V434" s="2"/>
     </row>
-    <row r="435">
+    <row r="435" spans="22:22">
       <c r="V435" s="2"/>
     </row>
-    <row r="436">
+    <row r="436" spans="22:22">
       <c r="V436" s="2"/>
     </row>
-    <row r="437">
+    <row r="437" spans="22:22">
       <c r="V437" s="2"/>
     </row>
-    <row r="438">
+    <row r="438" spans="22:22">
       <c r="V438" s="2"/>
     </row>
-    <row r="439">
+    <row r="439" spans="22:22">
       <c r="V439" s="2"/>
     </row>
-    <row r="440">
+    <row r="440" spans="22:22">
       <c r="V440" s="2"/>
     </row>
-    <row r="441">
+    <row r="441" spans="22:22">
       <c r="V441" s="2"/>
     </row>
-    <row r="442">
+    <row r="442" spans="22:22">
       <c r="V442" s="2"/>
     </row>
-    <row r="443">
+    <row r="443" spans="22:22">
       <c r="V443" s="2"/>
     </row>
-    <row r="444">
+    <row r="444" spans="22:22">
       <c r="V444" s="2"/>
     </row>
-    <row r="445">
+    <row r="445" spans="22:22">
       <c r="V445" s="2"/>
     </row>
-    <row r="446">
+    <row r="446" spans="22:22">
       <c r="V446" s="2"/>
     </row>
-    <row r="447">
+    <row r="447" spans="22:22">
       <c r="V447" s="2"/>
     </row>
-    <row r="448">
+    <row r="448" spans="22:22">
       <c r="V448" s="2"/>
     </row>
-    <row r="449">
+    <row r="449" spans="22:22">
       <c r="V449" s="2"/>
     </row>
-    <row r="450">
+    <row r="450" spans="22:22">
       <c r="V450" s="2"/>
     </row>
-    <row r="451">
+    <row r="451" spans="22:22">
       <c r="V451" s="2"/>
     </row>
-    <row r="452">
+    <row r="452" spans="22:22">
       <c r="V452" s="2"/>
     </row>
-    <row r="453">
+    <row r="453" spans="22:22">
       <c r="V453" s="2"/>
     </row>
-    <row r="454">
+    <row r="454" spans="22:22">
       <c r="V454" s="2"/>
     </row>
-    <row r="455">
+    <row r="455" spans="22:22">
       <c r="V455" s="2"/>
     </row>
-    <row r="456">
+    <row r="456" spans="22:22">
       <c r="V456" s="2"/>
     </row>
-    <row r="457">
+    <row r="457" spans="22:22">
       <c r="V457" s="2"/>
     </row>
-    <row r="458">
+    <row r="458" spans="22:22">
       <c r="V458" s="2"/>
     </row>
-    <row r="459">
+    <row r="459" spans="22:22">
       <c r="V459" s="2"/>
     </row>
-    <row r="460">
+    <row r="460" spans="22:22">
       <c r="V460" s="2"/>
     </row>
-    <row r="461">
+    <row r="461" spans="22:22">
       <c r="V461" s="2"/>
     </row>
-    <row r="462">
+    <row r="462" spans="22:22">
       <c r="V462" s="2"/>
     </row>
-    <row r="463">
+    <row r="463" spans="22:22">
       <c r="V463" s="2"/>
     </row>
-    <row r="464">
+    <row r="464" spans="22:22">
       <c r="V464" s="2"/>
     </row>
-    <row r="465">
+    <row r="465" spans="22:22">
       <c r="V465" s="2"/>
     </row>
-    <row r="466">
+    <row r="466" spans="22:22">
       <c r="V466" s="2"/>
     </row>
-    <row r="467">
+    <row r="467" spans="22:22">
       <c r="V467" s="2"/>
     </row>
-    <row r="468">
+    <row r="468" spans="22:22">
       <c r="V468" s="2"/>
     </row>
-    <row r="469">
+    <row r="469" spans="22:22">
       <c r="V469" s="2"/>
     </row>
-    <row r="470">
+    <row r="470" spans="22:22">
       <c r="V470" s="2"/>
     </row>
-    <row r="471">
+    <row r="471" spans="22:22">
       <c r="V471" s="2"/>
     </row>
-    <row r="472">
+    <row r="472" spans="22:22">
       <c r="V472" s="2"/>
     </row>
-    <row r="473">
+    <row r="473" spans="22:22">
       <c r="V473" s="2"/>
     </row>
-    <row r="474">
+    <row r="474" spans="22:22">
       <c r="V474" s="2"/>
     </row>
-    <row r="475">
+    <row r="475" spans="22:22">
       <c r="V475" s="2"/>
     </row>
-    <row r="476">
+    <row r="476" spans="22:22">
       <c r="V476" s="2"/>
     </row>
-    <row r="477">
+    <row r="477" spans="22:22">
       <c r="V477" s="2"/>
     </row>
-    <row r="478">
+    <row r="478" spans="22:22">
       <c r="V478" s="2"/>
     </row>
-    <row r="479">
+    <row r="479" spans="22:22">
       <c r="V479" s="2"/>
     </row>
-    <row r="480">
+    <row r="480" spans="22:22">
       <c r="V480" s="2"/>
     </row>
-    <row r="481">
+    <row r="481" spans="22:22">
       <c r="V481" s="2"/>
     </row>
-    <row r="482">
+    <row r="482" spans="22:22">
       <c r="V482" s="2"/>
     </row>
-    <row r="483">
+    <row r="483" spans="22:22">
       <c r="V483" s="2"/>
     </row>
-    <row r="484">
+    <row r="484" spans="22:22">
       <c r="V484" s="2"/>
     </row>
-    <row r="485">
+    <row r="485" spans="22:22">
       <c r="V485" s="2"/>
     </row>
-    <row r="486">
+    <row r="486" spans="22:22">
       <c r="V486" s="2"/>
     </row>
-    <row r="487">
+    <row r="487" spans="22:22">
       <c r="V487" s="2"/>
     </row>
-    <row r="488">
+    <row r="488" spans="22:22">
       <c r="V488" s="2"/>
     </row>
-    <row r="489">
+    <row r="489" spans="22:22">
       <c r="V489" s="2"/>
     </row>
-    <row r="490">
+    <row r="490" spans="22:22">
       <c r="V490" s="2"/>
     </row>
-    <row r="491">
+    <row r="491" spans="22:22">
       <c r="V491" s="2"/>
     </row>
-    <row r="492">
+    <row r="492" spans="22:22">
       <c r="V492" s="2"/>
     </row>
-    <row r="493">
+    <row r="493" spans="22:22">
       <c r="V493" s="2"/>
     </row>
-    <row r="494">
+    <row r="494" spans="22:22">
       <c r="V494" s="2"/>
     </row>
-    <row r="495">
+    <row r="495" spans="22:22">
       <c r="V495" s="2"/>
     </row>
-    <row r="496">
+    <row r="496" spans="22:22">
       <c r="V496" s="2"/>
     </row>
-    <row r="497">
+    <row r="497" spans="22:22">
       <c r="V497" s="2"/>
     </row>
-    <row r="498">
+    <row r="498" spans="22:22">
       <c r="V498" s="2"/>
     </row>
-    <row r="499">
+    <row r="499" spans="22:22">
       <c r="V499" s="2"/>
     </row>
-    <row r="500">
+    <row r="500" spans="22:22">
       <c r="V500" s="2"/>
     </row>
-    <row r="501">
+    <row r="501" spans="22:22">
       <c r="V501" s="2"/>
     </row>
-    <row r="502">
+    <row r="502" spans="22:22">
       <c r="V502" s="2"/>
     </row>
-    <row r="503">
+    <row r="503" spans="22:22">
       <c r="V503" s="2"/>
     </row>
-    <row r="504">
+    <row r="504" spans="22:22">
       <c r="V504" s="2"/>
     </row>
-    <row r="505">
+    <row r="505" spans="22:22">
       <c r="V505" s="2"/>
     </row>
-    <row r="506">
+    <row r="506" spans="22:22">
       <c r="V506" s="2"/>
     </row>
-    <row r="507">
+    <row r="507" spans="22:22">
       <c r="V507" s="2"/>
     </row>
-    <row r="508">
+    <row r="508" spans="22:22">
       <c r="V508" s="2"/>
     </row>
-    <row r="509">
+    <row r="509" spans="22:22">
       <c r="V509" s="2"/>
     </row>
-    <row r="510">
+    <row r="510" spans="22:22">
       <c r="V510" s="2"/>
     </row>
-    <row r="511">
+    <row r="511" spans="22:22">
       <c r="V511" s="2"/>
     </row>
-    <row r="512">
+    <row r="512" spans="22:22">
       <c r="V512" s="2"/>
     </row>
-    <row r="513">
+    <row r="513" spans="22:22">
       <c r="V513" s="2"/>
     </row>
-    <row r="514">
+    <row r="514" spans="22:22">
       <c r="V514" s="2"/>
     </row>
-    <row r="515">
+    <row r="515" spans="22:22">
       <c r="V515" s="2"/>
     </row>
-    <row r="516">
+    <row r="516" spans="22:22">
       <c r="V516" s="2"/>
     </row>
-    <row r="517">
+    <row r="517" spans="22:22">
       <c r="V517" s="2"/>
     </row>
-    <row r="518">
+    <row r="518" spans="22:22">
       <c r="V518" s="2"/>
     </row>
-    <row r="519">
+    <row r="519" spans="22:22">
       <c r="V519" s="2"/>
     </row>
-    <row r="520">
+    <row r="520" spans="22:22">
       <c r="V520" s="2"/>
     </row>
-    <row r="521">
+    <row r="521" spans="22:22">
       <c r="V521" s="2"/>
     </row>
-    <row r="522">
+    <row r="522" spans="22:22">
       <c r="V522" s="2"/>
     </row>
-    <row r="523">
+    <row r="523" spans="22:22">
       <c r="V523" s="2"/>
     </row>
-    <row r="524">
+    <row r="524" spans="22:22">
       <c r="V524" s="2"/>
     </row>
-    <row r="525">
+    <row r="525" spans="22:22">
       <c r="V525" s="2"/>
     </row>
-    <row r="526">
+    <row r="526" spans="22:22">
       <c r="V526" s="2"/>
     </row>
-    <row r="527">
+    <row r="527" spans="22:22">
       <c r="V527" s="2"/>
     </row>
-    <row r="528">
+    <row r="528" spans="22:22">
       <c r="V528" s="2"/>
     </row>
-    <row r="529">
+    <row r="529" spans="22:22">
       <c r="V529" s="2"/>
     </row>
-    <row r="530">
+    <row r="530" spans="22:22">
       <c r="V530" s="2"/>
     </row>
-    <row r="531">
+    <row r="531" spans="22:22">
       <c r="V531" s="2"/>
     </row>
-    <row r="532">
+    <row r="532" spans="22:22">
       <c r="V532" s="2"/>
     </row>
-    <row r="533">
+    <row r="533" spans="22:22">
       <c r="V533" s="2"/>
     </row>
-    <row r="534">
+    <row r="534" spans="22:22">
       <c r="V534" s="2"/>
     </row>
-    <row r="535">
+    <row r="535" spans="22:22">
       <c r="V535" s="2"/>
     </row>
-    <row r="536">
+    <row r="536" spans="22:22">
       <c r="V536" s="2"/>
     </row>
-    <row r="537">
+    <row r="537" spans="22:22">
       <c r="V537" s="2"/>
     </row>
-    <row r="538">
+    <row r="538" spans="22:22">
       <c r="V538" s="2"/>
     </row>
-    <row r="539">
+    <row r="539" spans="22:22">
       <c r="V539" s="2"/>
     </row>
-    <row r="540">
+    <row r="540" spans="22:22">
       <c r="V540" s="2"/>
     </row>
-    <row r="541">
+    <row r="541" spans="22:22">
       <c r="V541" s="2"/>
     </row>
-    <row r="542">
+    <row r="542" spans="22:22">
       <c r="V542" s="2"/>
     </row>
-    <row r="543">
+    <row r="543" spans="22:22">
       <c r="V543" s="2"/>
     </row>
-    <row r="544">
+    <row r="544" spans="22:22">
       <c r="V544" s="2"/>
     </row>
-    <row r="545">
+    <row r="545" spans="22:22">
       <c r="V545" s="2"/>
     </row>
-    <row r="546">
+    <row r="546" spans="22:22">
       <c r="V546" s="2"/>
     </row>
-    <row r="547">
+    <row r="547" spans="22:22">
       <c r="V547" s="2"/>
     </row>
-    <row r="548">
+    <row r="548" spans="22:22">
       <c r="V548" s="2"/>
     </row>
-    <row r="549">
+    <row r="549" spans="22:22">
       <c r="V549" s="2"/>
     </row>
-    <row r="550">
+    <row r="550" spans="22:22">
       <c r="V550" s="2"/>
     </row>
-    <row r="551">
+    <row r="551" spans="22:22">
       <c r="V551" s="2"/>
     </row>
-    <row r="552">
+    <row r="552" spans="22:22">
       <c r="V552" s="2"/>
     </row>
-    <row r="553">
+    <row r="553" spans="22:22">
       <c r="V553" s="2"/>
     </row>
-    <row r="554">
+    <row r="554" spans="22:22">
       <c r="V554" s="2"/>
     </row>
-    <row r="555">
+    <row r="555" spans="22:22">
       <c r="V555" s="2"/>
     </row>
-    <row r="556">
+    <row r="556" spans="22:22">
       <c r="V556" s="2"/>
     </row>
-    <row r="557">
+    <row r="557" spans="22:22">
       <c r="V557" s="2"/>
     </row>
-    <row r="558">
+    <row r="558" spans="22:22">
       <c r="V558" s="2"/>
     </row>
-    <row r="559">
+    <row r="559" spans="22:22">
       <c r="V559" s="2"/>
     </row>
-    <row r="560">
+    <row r="560" spans="22:22">
       <c r="V560" s="2"/>
     </row>
-    <row r="561">
+    <row r="561" spans="22:22">
       <c r="V561" s="2"/>
     </row>
-    <row r="562">
+    <row r="562" spans="22:22">
       <c r="V562" s="2"/>
     </row>
-    <row r="563">
+    <row r="563" spans="22:22">
       <c r="V563" s="2"/>
     </row>
-    <row r="564">
+    <row r="564" spans="22:22">
       <c r="V564" s="2"/>
     </row>
-    <row r="565">
+    <row r="565" spans="22:22">
       <c r="V565" s="2"/>
     </row>
-    <row r="566">
+    <row r="566" spans="22:22">
       <c r="V566" s="2"/>
     </row>
-    <row r="567">
+    <row r="567" spans="22:22">
       <c r="V567" s="2"/>
     </row>
-    <row r="568">
+    <row r="568" spans="22:22">
       <c r="V568" s="2"/>
     </row>
-    <row r="569">
+    <row r="569" spans="22:22">
       <c r="V569" s="2"/>
     </row>
-    <row r="570">
+    <row r="570" spans="22:22">
       <c r="V570" s="2"/>
     </row>
-    <row r="571">
+    <row r="571" spans="22:22">
       <c r="V571" s="2"/>
     </row>
-    <row r="572">
+    <row r="572" spans="22:22">
       <c r="V572" s="2"/>
     </row>
-    <row r="573">
+    <row r="573" spans="22:22">
       <c r="V573" s="2"/>
     </row>
-    <row r="574">
+    <row r="574" spans="22:22">
       <c r="V574" s="2"/>
     </row>
-    <row r="575">
+    <row r="575" spans="22:22">
       <c r="V575" s="2"/>
     </row>
-    <row r="576">
+    <row r="576" spans="22:22">
       <c r="V576" s="2"/>
     </row>
-    <row r="577">
+    <row r="577" spans="22:22">
       <c r="V577" s="2"/>
     </row>
-    <row r="578">
+    <row r="578" spans="22:22">
       <c r="V578" s="2"/>
     </row>
-    <row r="579">
+    <row r="579" spans="22:22">
       <c r="V579" s="2"/>
     </row>
-    <row r="580">
+    <row r="580" spans="22:22">
       <c r="V580" s="2"/>
     </row>
-    <row r="581">
+    <row r="581" spans="22:22">
       <c r="V581" s="2"/>
     </row>
-    <row r="582">
+    <row r="582" spans="22:22">
       <c r="V582" s="2"/>
     </row>
-    <row r="583">
+    <row r="583" spans="22:22">
       <c r="V583" s="2"/>
     </row>
-    <row r="584">
+    <row r="584" spans="22:22">
       <c r="V584" s="2"/>
     </row>
-    <row r="585">
+    <row r="585" spans="22:22">
       <c r="V585" s="2"/>
     </row>
-    <row r="586">
+    <row r="586" spans="22:22">
       <c r="V586" s="2"/>
     </row>
-    <row r="587">
+    <row r="587" spans="22:22">
       <c r="V587" s="2"/>
     </row>
-    <row r="588">
+    <row r="588" spans="22:22">
       <c r="V588" s="2"/>
     </row>
-    <row r="589">
+    <row r="589" spans="22:22">
       <c r="V589" s="2"/>
     </row>
-    <row r="590">
+    <row r="590" spans="22:22">
       <c r="V590" s="2"/>
     </row>
-    <row r="591">
+    <row r="591" spans="22:22">
       <c r="V591" s="2"/>
     </row>
-    <row r="592">
+    <row r="592" spans="22:22">
       <c r="V592" s="2"/>
     </row>
-    <row r="593">
+    <row r="593" spans="22:22">
       <c r="V593" s="2"/>
     </row>
-    <row r="594">
+    <row r="594" spans="22:22">
       <c r="V594" s="2"/>
     </row>
-    <row r="595">
+    <row r="595" spans="22:22">
       <c r="V595" s="2"/>
     </row>
-    <row r="596">
+    <row r="596" spans="22:22">
       <c r="V596" s="2"/>
     </row>
-    <row r="597">
+    <row r="597" spans="22:22">
       <c r="V597" s="2"/>
     </row>
-    <row r="598">
+    <row r="598" spans="22:22">
       <c r="V598" s="2"/>
     </row>
-    <row r="599">
+    <row r="599" spans="22:22">
       <c r="V599" s="2"/>
     </row>
-    <row r="600">
+    <row r="600" spans="22:22">
       <c r="V600" s="2"/>
     </row>
-    <row r="601">
+    <row r="601" spans="22:22">
       <c r="V601" s="2"/>
     </row>
-    <row r="602">
+    <row r="602" spans="22:22">
       <c r="V602" s="2"/>
     </row>
-    <row r="603">
+    <row r="603" spans="22:22">
       <c r="V603" s="2"/>
     </row>
-    <row r="604">
+    <row r="604" spans="22:22">
       <c r="V604" s="2"/>
     </row>
-    <row r="605">
+    <row r="605" spans="22:22">
       <c r="V605" s="2"/>
     </row>
-    <row r="606">
+    <row r="606" spans="22:22">
       <c r="V606" s="2"/>
     </row>
-    <row r="607">
+    <row r="607" spans="22:22">
       <c r="V607" s="2"/>
     </row>
-    <row r="608">
+    <row r="608" spans="22:22">
       <c r="V608" s="2"/>
     </row>
-    <row r="609">
+    <row r="609" spans="22:22">
       <c r="V609" s="2"/>
     </row>
-    <row r="610">
+    <row r="610" spans="22:22">
       <c r="V610" s="2"/>
     </row>
-    <row r="611">
+    <row r="611" spans="22:22">
       <c r="V611" s="2"/>
     </row>
-    <row r="612">
+    <row r="612" spans="22:22">
       <c r="V612" s="2"/>
     </row>
-    <row r="613">
+    <row r="613" spans="22:22">
       <c r="V613" s="2"/>
     </row>
-    <row r="614">
+    <row r="614" spans="22:22">
       <c r="V614" s="2"/>
     </row>
-    <row r="615">
+    <row r="615" spans="22:22">
       <c r="V615" s="2"/>
     </row>
-    <row r="616">
+    <row r="616" spans="22:22">
       <c r="V616" s="2"/>
     </row>
-    <row r="617">
+    <row r="617" spans="22:22">
       <c r="V617" s="2"/>
     </row>
-    <row r="618">
+    <row r="618" spans="22:22">
       <c r="V618" s="2"/>
     </row>
-    <row r="619">
+    <row r="619" spans="22:22">
       <c r="V619" s="2"/>
     </row>
-    <row r="620">
+    <row r="620" spans="22:22">
       <c r="V620" s="2"/>
     </row>
-    <row r="621">
+    <row r="621" spans="22:22">
       <c r="V621" s="2"/>
     </row>
-    <row r="622">
+    <row r="622" spans="22:22">
       <c r="V622" s="2"/>
     </row>
-    <row r="623">
+    <row r="623" spans="22:22">
       <c r="V623" s="2"/>
     </row>
-    <row r="624">
+    <row r="624" spans="22:22">
       <c r="V624" s="2"/>
     </row>
-    <row r="625">
+    <row r="625" spans="22:22">
       <c r="V625" s="2"/>
     </row>
-    <row r="626">
+    <row r="626" spans="22:22">
       <c r="V626" s="2"/>
     </row>
-    <row r="627">
+    <row r="627" spans="22:22">
       <c r="V627" s="2"/>
     </row>
-    <row r="628">
+    <row r="628" spans="22:22">
       <c r="V628" s="2"/>
     </row>
-    <row r="629">
+    <row r="629" spans="22:22">
       <c r="V629" s="2"/>
     </row>
-    <row r="630">
+    <row r="630" spans="22:22">
       <c r="V630" s="2"/>
     </row>
-    <row r="631">
+    <row r="631" spans="22:22">
       <c r="V631" s="2"/>
     </row>
-    <row r="632">
+    <row r="632" spans="22:22">
       <c r="V632" s="2"/>
     </row>
-    <row r="633">
+    <row r="633" spans="22:22">
       <c r="V633" s="2"/>
     </row>
-    <row r="634">
+    <row r="634" spans="22:22">
       <c r="V634" s="2"/>
     </row>
-    <row r="635">
+    <row r="635" spans="22:22">
       <c r="V635" s="2"/>
     </row>
-    <row r="636">
+    <row r="636" spans="22:22">
       <c r="V636" s="2"/>
     </row>
-    <row r="637">
+    <row r="637" spans="22:22">
       <c r="V637" s="2"/>
     </row>
-    <row r="638">
+    <row r="638" spans="22:22">
       <c r="V638" s="2"/>
     </row>
-    <row r="639">
+    <row r="639" spans="22:22">
       <c r="V639" s="2"/>
     </row>
-    <row r="640">
+    <row r="640" spans="22:22">
       <c r="V640" s="2"/>
     </row>
-    <row r="641">
+    <row r="641" spans="22:22">
       <c r="V641" s="2"/>
     </row>
-    <row r="642">
+    <row r="642" spans="22:22">
       <c r="V642" s="2"/>
     </row>
-    <row r="643">
+    <row r="643" spans="22:22">
       <c r="V643" s="2"/>
     </row>
-    <row r="644">
+    <row r="644" spans="22:22">
       <c r="V644" s="2"/>
     </row>
-    <row r="645">
+    <row r="645" spans="22:22">
       <c r="V645" s="2"/>
     </row>
-    <row r="646">
+    <row r="646" spans="22:22">
       <c r="V646" s="2"/>
     </row>
-    <row r="647">
+    <row r="647" spans="22:22">
       <c r="V647" s="2"/>
     </row>
-    <row r="648">
+    <row r="648" spans="22:22">
       <c r="V648" s="2"/>
     </row>
-    <row r="649">
+    <row r="649" spans="22:22">
       <c r="V649" s="2"/>
     </row>
-    <row r="650">
+    <row r="650" spans="22:22">
       <c r="V650" s="2"/>
     </row>
-    <row r="651">
+    <row r="651" spans="22:22">
       <c r="V651" s="2"/>
     </row>
-    <row r="652">
+    <row r="652" spans="22:22">
       <c r="V652" s="2"/>
     </row>
-    <row r="653">
+    <row r="653" spans="22:22">
       <c r="V653" s="2"/>
     </row>
-    <row r="654">
+    <row r="654" spans="22:22">
       <c r="V654" s="2"/>
     </row>
-    <row r="655">
+    <row r="655" spans="22:22">
       <c r="V655" s="2"/>
     </row>
-    <row r="656">
+    <row r="656" spans="22:22">
       <c r="V656" s="2"/>
     </row>
-    <row r="657">
+    <row r="657" spans="22:22">
       <c r="V657" s="2"/>
     </row>
-    <row r="658">
+    <row r="658" spans="22:22">
       <c r="V658" s="2"/>
     </row>
-    <row r="659">
+    <row r="659" spans="22:22">
       <c r="V659" s="2"/>
     </row>
-    <row r="660">
+    <row r="660" spans="22:22">
       <c r="V660" s="2"/>
     </row>
-    <row r="661">
+    <row r="661" spans="22:22">
       <c r="V661" s="2"/>
     </row>
-    <row r="662">
+    <row r="662" spans="22:22">
       <c r="V662" s="2"/>
     </row>
-    <row r="663">
+    <row r="663" spans="22:22">
       <c r="V663" s="2"/>
     </row>
-    <row r="664">
+    <row r="664" spans="22:22">
       <c r="V664" s="2"/>
     </row>
-    <row r="665">
+    <row r="665" spans="22:22">
       <c r="V665" s="2"/>
     </row>
-    <row r="666">
+    <row r="666" spans="22:22">
       <c r="V666" s="2"/>
     </row>
-    <row r="667">
+    <row r="667" spans="22:22">
       <c r="V667" s="2"/>
     </row>
-    <row r="668">
+    <row r="668" spans="22:22">
       <c r="V668" s="2"/>
     </row>
-    <row r="669">
+    <row r="669" spans="22:22">
       <c r="V669" s="2"/>
     </row>
-    <row r="670">
+    <row r="670" spans="22:22">
       <c r="V670" s="2"/>
     </row>
-    <row r="671">
+    <row r="671" spans="22:22">
       <c r="V671" s="2"/>
     </row>
-    <row r="672">
+    <row r="672" spans="22:22">
       <c r="V672" s="2"/>
     </row>
-    <row r="673">
+    <row r="673" spans="22:22">
       <c r="V673" s="2"/>
     </row>
-    <row r="674">
+    <row r="674" spans="22:22">
       <c r="V674" s="2"/>
     </row>
-    <row r="675">
+    <row r="675" spans="22:22">
       <c r="V675" s="2"/>
     </row>
-    <row r="676">
+    <row r="676" spans="22:22">
       <c r="V676" s="2"/>
     </row>
-    <row r="677">
+    <row r="677" spans="22:22">
       <c r="V677" s="2"/>
     </row>
-    <row r="678">
+    <row r="678" spans="22:22">
       <c r="V678" s="2"/>
     </row>
-    <row r="679">
+    <row r="679" spans="22:22">
       <c r="V679" s="2"/>
     </row>
-    <row r="680">
+    <row r="680" spans="22:22">
       <c r="V680" s="2"/>
     </row>
-    <row r="681">
+    <row r="681" spans="22:22">
       <c r="V681" s="2"/>
     </row>
-    <row r="682">
+    <row r="682" spans="22:22">
       <c r="V682" s="2"/>
     </row>
-    <row r="683">
+    <row r="683" spans="22:22">
       <c r="V683" s="2"/>
     </row>
-    <row r="684">
+    <row r="684" spans="22:22">
       <c r="V684" s="2"/>
     </row>
-    <row r="685">
+    <row r="685" spans="22:22">
       <c r="V685" s="2"/>
     </row>
-    <row r="686">
+    <row r="686" spans="22:22">
       <c r="V686" s="2"/>
     </row>
-    <row r="687">
+    <row r="687" spans="22:22">
       <c r="V687" s="2"/>
     </row>
-    <row r="688">
+    <row r="688" spans="22:22">
       <c r="V688" s="2"/>
     </row>
-    <row r="689">
+    <row r="689" spans="22:22">
       <c r="V689" s="2"/>
     </row>
-    <row r="690">
+    <row r="690" spans="22:22">
       <c r="V690" s="2"/>
     </row>
-    <row r="691">
+    <row r="691" spans="22:22">
       <c r="V691" s="2"/>
     </row>
-    <row r="692">
+    <row r="692" spans="22:22">
       <c r="V692" s="2"/>
     </row>
-    <row r="693">
+    <row r="693" spans="22:22">
       <c r="V693" s="2"/>
     </row>
-    <row r="694">
+    <row r="694" spans="22:22">
       <c r="V694" s="2"/>
     </row>
-    <row r="695">
+    <row r="695" spans="22:22">
       <c r="V695" s="2"/>
     </row>
-    <row r="696">
+    <row r="696" spans="22:22">
       <c r="V696" s="2"/>
     </row>
-    <row r="697">
+    <row r="697" spans="22:22">
       <c r="V697" s="2"/>
     </row>
-    <row r="698">
+    <row r="698" spans="22:22">
       <c r="V698" s="2"/>
     </row>
-    <row r="699">
+    <row r="699" spans="22:22">
       <c r="V699" s="2"/>
     </row>
-    <row r="700">
+    <row r="700" spans="22:22">
       <c r="V700" s="2"/>
     </row>
-    <row r="701">
+    <row r="701" spans="22:22">
       <c r="V701" s="2"/>
     </row>
-    <row r="702">
+    <row r="702" spans="22:22">
       <c r="V702" s="2"/>
     </row>
-    <row r="703">
+    <row r="703" spans="22:22">
       <c r="V703" s="2"/>
     </row>
-    <row r="704">
+    <row r="704" spans="22:22">
       <c r="V704" s="2"/>
     </row>
-    <row r="705">
+    <row r="705" spans="22:22">
       <c r="V705" s="2"/>
     </row>
-    <row r="706">
+    <row r="706" spans="22:22">
       <c r="V706" s="2"/>
     </row>
-    <row r="707">
+    <row r="707" spans="22:22">
       <c r="V707" s="2"/>
     </row>
-    <row r="708">
+    <row r="708" spans="22:22">
       <c r="V708" s="2"/>
     </row>
-    <row r="709">
+    <row r="709" spans="22:22">
       <c r="V709" s="2"/>
     </row>
-    <row r="710">
+    <row r="710" spans="22:22">
       <c r="V710" s="2"/>
     </row>
-    <row r="711">
+    <row r="711" spans="22:22">
       <c r="V711" s="2"/>
     </row>
-    <row r="712">
+    <row r="712" spans="22:22">
       <c r="V712" s="2"/>
     </row>
-    <row r="713">
+    <row r="713" spans="22:22">
       <c r="V713" s="2"/>
     </row>
-    <row r="714">
+    <row r="714" spans="22:22">
       <c r="V714" s="2"/>
     </row>
-    <row r="715">
+    <row r="715" spans="22:22">
       <c r="V715" s="2"/>
     </row>
-    <row r="716">
+    <row r="716" spans="22:22">
       <c r="V716" s="2"/>
     </row>
-    <row r="717">
+    <row r="717" spans="22:22">
       <c r="V717" s="2"/>
     </row>
-    <row r="718">
+    <row r="718" spans="22:22">
       <c r="V718" s="2"/>
     </row>
-    <row r="719">
+    <row r="719" spans="22:22">
       <c r="V719" s="2"/>
     </row>
-    <row r="720">
+    <row r="720" spans="22:22">
       <c r="V720" s="2"/>
     </row>
-    <row r="721">
+    <row r="721" spans="22:22">
       <c r="V721" s="2"/>
     </row>
-    <row r="722">
+    <row r="722" spans="22:22">
       <c r="V722" s="2"/>
     </row>
-    <row r="723">
+    <row r="723" spans="22:22">
       <c r="V723" s="2"/>
     </row>
-    <row r="724">
+    <row r="724" spans="22:22">
       <c r="V724" s="2"/>
     </row>
-    <row r="725">
+    <row r="725" spans="22:22">
       <c r="V725" s="2"/>
     </row>
-    <row r="726">
+    <row r="726" spans="22:22">
       <c r="V726" s="2"/>
     </row>
-    <row r="727">
+    <row r="727" spans="22:22">
       <c r="V727" s="2"/>
     </row>
-    <row r="728">
+    <row r="728" spans="22:22">
       <c r="V728" s="2"/>
     </row>
-    <row r="729">
+    <row r="729" spans="22:22">
       <c r="V729" s="2"/>
     </row>
-    <row r="730">
+    <row r="730" spans="22:22">
       <c r="V730" s="2"/>
     </row>
-    <row r="731">
+    <row r="731" spans="22:22">
       <c r="V731" s="2"/>
     </row>
-    <row r="732">
+    <row r="732" spans="22:22">
       <c r="V732" s="2"/>
     </row>
-    <row r="733">
+    <row r="733" spans="22:22">
       <c r="V733" s="2"/>
     </row>
-    <row r="734">
+    <row r="734" spans="22:22">
       <c r="V734" s="2"/>
     </row>
-    <row r="735">
+    <row r="735" spans="22:22">
       <c r="V735" s="2"/>
     </row>
-    <row r="736">
+    <row r="736" spans="22:22">
       <c r="V736" s="2"/>
     </row>
-    <row r="737">
+    <row r="737" spans="22:22">
       <c r="V737" s="2"/>
     </row>
-    <row r="738">
+    <row r="738" spans="22:22">
       <c r="V738" s="2"/>
     </row>
-    <row r="739">
+    <row r="739" spans="22:22">
       <c r="V739" s="2"/>
     </row>
-    <row r="740">
+    <row r="740" spans="22:22">
       <c r="V740" s="2"/>
     </row>
-    <row r="741">
+    <row r="741" spans="22:22">
       <c r="V741" s="2"/>
     </row>
-    <row r="742">
+    <row r="742" spans="22:22">
       <c r="V742" s="2"/>
     </row>
-    <row r="743">
+    <row r="743" spans="22:22">
       <c r="V743" s="2"/>
     </row>
-    <row r="744">
+    <row r="744" spans="22:22">
       <c r="V744" s="2"/>
     </row>
-    <row r="745">
+    <row r="745" spans="22:22">
       <c r="V745" s="2"/>
     </row>
-    <row r="746">
+    <row r="746" spans="22:22">
       <c r="V746" s="2"/>
     </row>
-    <row r="747">
+    <row r="747" spans="22:22">
       <c r="V747" s="2"/>
     </row>
-    <row r="748">
+    <row r="748" spans="22:22">
       <c r="V748" s="2"/>
     </row>
-    <row r="749">
+    <row r="749" spans="22:22">
       <c r="V749" s="2"/>
     </row>
-    <row r="750">
+    <row r="750" spans="22:22">
       <c r="V750" s="2"/>
     </row>
-    <row r="751">
+    <row r="751" spans="22:22">
       <c r="V751" s="2"/>
     </row>
-    <row r="752">
+    <row r="752" spans="22:22">
       <c r="V752" s="2"/>
     </row>
-    <row r="753">
+    <row r="753" spans="22:22">
       <c r="V753" s="2"/>
     </row>
-    <row r="754">
+    <row r="754" spans="22:22">
       <c r="V754" s="2"/>
     </row>
-    <row r="755">
+    <row r="755" spans="22:22">
       <c r="V755" s="2"/>
     </row>
-    <row r="756">
+    <row r="756" spans="22:22">
       <c r="V756" s="2"/>
     </row>
-    <row r="757">
+    <row r="757" spans="22:22">
       <c r="V757" s="2"/>
     </row>
-    <row r="758">
+    <row r="758" spans="22:22">
       <c r="V758" s="2"/>
     </row>
-    <row r="759">
+    <row r="759" spans="22:22">
       <c r="V759" s="2"/>
     </row>
-    <row r="760">
+    <row r="760" spans="22:22">
       <c r="V760" s="2"/>
     </row>
-    <row r="761">
+    <row r="761" spans="22:22">
       <c r="V761" s="2"/>
     </row>
-    <row r="762">
+    <row r="762" spans="22:22">
       <c r="V762" s="2"/>
     </row>
-    <row r="763">
+    <row r="763" spans="22:22">
       <c r="V763" s="2"/>
     </row>
-    <row r="764">
+    <row r="764" spans="22:22">
       <c r="V764" s="2"/>
     </row>
-    <row r="765">
+    <row r="765" spans="22:22">
       <c r="V765" s="2"/>
     </row>
-    <row r="766">
+    <row r="766" spans="22:22">
       <c r="V766" s="2"/>
     </row>
-    <row r="767">
+    <row r="767" spans="22:22">
       <c r="V767" s="2"/>
     </row>
-    <row r="768">
+    <row r="768" spans="22:22">
       <c r="V768" s="2"/>
     </row>
-    <row r="769">
+    <row r="769" spans="22:22">
       <c r="V769" s="2"/>
     </row>
-    <row r="770">
+    <row r="770" spans="22:22">
       <c r="V770" s="2"/>
     </row>
-    <row r="771">
+    <row r="771" spans="22:22">
       <c r="V771" s="2"/>
     </row>
-    <row r="772">
+    <row r="772" spans="22:22">
       <c r="V772" s="2"/>
     </row>
-    <row r="773">
+    <row r="773" spans="22:22">
       <c r="V773" s="2"/>
     </row>
-    <row r="774">
+    <row r="774" spans="22:22">
       <c r="V774" s="2"/>
     </row>
-    <row r="775">
+    <row r="775" spans="22:22">
       <c r="V775" s="2"/>
     </row>
-    <row r="776">
+    <row r="776" spans="22:22">
       <c r="V776" s="2"/>
     </row>
-    <row r="777">
+    <row r="777" spans="22:22">
       <c r="V777" s="2"/>
     </row>
-    <row r="778">
+    <row r="778" spans="22:22">
       <c r="V778" s="2"/>
     </row>
-    <row r="779">
+    <row r="779" spans="22:22">
       <c r="V779" s="2"/>
     </row>
-    <row r="780">
+    <row r="780" spans="22:22">
       <c r="V780" s="2"/>
     </row>
-    <row r="781">
+    <row r="781" spans="22:22">
       <c r="V781" s="2"/>
     </row>
-    <row r="782">
+    <row r="782" spans="22:22">
       <c r="V782" s="2"/>
     </row>
-    <row r="783">
+    <row r="783" spans="22:22">
       <c r="V783" s="2"/>
     </row>
-    <row r="784">
+    <row r="784" spans="22:22">
       <c r="V784" s="2"/>
     </row>
-    <row r="785">
+    <row r="785" spans="22:22">
       <c r="V785" s="2"/>
     </row>
-    <row r="786">
+    <row r="786" spans="22:22">
       <c r="V786" s="2"/>
     </row>
-    <row r="787">
+    <row r="787" spans="22:22">
       <c r="V787" s="2"/>
     </row>
-    <row r="788">
+    <row r="788" spans="22:22">
       <c r="V788" s="2"/>
     </row>
-    <row r="789">
+    <row r="789" spans="22:22">
       <c r="V789" s="2"/>
     </row>
-    <row r="790">
+    <row r="790" spans="22:22">
       <c r="V790" s="2"/>
     </row>
-    <row r="791">
+    <row r="791" spans="22:22">
       <c r="V791" s="2"/>
     </row>
-    <row r="792">
+    <row r="792" spans="22:22">
       <c r="V792" s="2"/>
     </row>
-    <row r="793">
+    <row r="793" spans="22:22">
       <c r="V793" s="2"/>
     </row>
-    <row r="794">
+    <row r="794" spans="22:22">
       <c r="V794" s="2"/>
     </row>
-    <row r="795">
+    <row r="795" spans="22:22">
       <c r="V795" s="2"/>
     </row>
-    <row r="796">
+    <row r="796" spans="22:22">
       <c r="V796" s="2"/>
     </row>
-    <row r="797">
+    <row r="797" spans="22:22">
       <c r="V797" s="2"/>
     </row>
-    <row r="798">
+    <row r="798" spans="22:22">
       <c r="V798" s="2"/>
     </row>
-    <row r="799">
+    <row r="799" spans="22:22">
       <c r="V799" s="2"/>
     </row>
-    <row r="800">
+    <row r="800" spans="22:22">
       <c r="V800" s="2"/>
     </row>
-    <row r="801">
+    <row r="801" spans="22:22">
       <c r="V801" s="2"/>
     </row>
-    <row r="802">
+    <row r="802" spans="22:22">
       <c r="V802" s="2"/>
     </row>
-    <row r="803">
+    <row r="803" spans="22:22">
       <c r="V803" s="2"/>
     </row>
-    <row r="804">
+    <row r="804" spans="22:22">
       <c r="V804" s="2"/>
     </row>
-    <row r="805">
+    <row r="805" spans="22:22">
       <c r="V805" s="2"/>
     </row>
-    <row r="806">
+    <row r="806" spans="22:22">
       <c r="V806" s="2"/>
     </row>
-    <row r="807">
+    <row r="807" spans="22:22">
       <c r="V807" s="2"/>
     </row>
-    <row r="808">
+    <row r="808" spans="22:22">
       <c r="V808" s="2"/>
     </row>
-    <row r="809">
+    <row r="809" spans="22:22">
       <c r="V809" s="2"/>
     </row>
-    <row r="810">
+    <row r="810" spans="22:22">
       <c r="V810" s="2"/>
     </row>
-    <row r="811">
+    <row r="811" spans="22:22">
       <c r="V811" s="2"/>
     </row>
-    <row r="812">
+    <row r="812" spans="22:22">
       <c r="V812" s="2"/>
     </row>
-    <row r="813">
+    <row r="813" spans="22:22">
       <c r="V813" s="2"/>
     </row>
-    <row r="814">
+    <row r="814" spans="22:22">
       <c r="V814" s="2"/>
     </row>
-    <row r="815">
+    <row r="815" spans="22:22">
       <c r="V815" s="2"/>
     </row>
-    <row r="816">
+    <row r="816" spans="22:22">
       <c r="V816" s="2"/>
     </row>
-    <row r="817">
+    <row r="817" spans="22:22">
       <c r="V817" s="2"/>
     </row>
-    <row r="818">
+    <row r="818" spans="22:22">
       <c r="V818" s="2"/>
     </row>
-    <row r="819">
+    <row r="819" spans="22:22">
       <c r="V819" s="2"/>
     </row>
-    <row r="820">
+    <row r="820" spans="22:22">
       <c r="V820" s="2"/>
     </row>
-    <row r="821">
+    <row r="821" spans="22:22">
       <c r="V821" s="2"/>
     </row>
-    <row r="822">
+    <row r="822" spans="22:22">
       <c r="V822" s="2"/>
     </row>
-    <row r="823">
+    <row r="823" spans="22:22">
       <c r="V823" s="2"/>
     </row>
-    <row r="824">
+    <row r="824" spans="22:22">
       <c r="V824" s="2"/>
     </row>
-    <row r="825">
+    <row r="825" spans="22:22">
       <c r="V825" s="2"/>
     </row>
-    <row r="826">
+    <row r="826" spans="22:22">
       <c r="V826" s="2"/>
     </row>
-    <row r="827">
+    <row r="827" spans="22:22">
       <c r="V827" s="2"/>
     </row>
-    <row r="828">
+    <row r="828" spans="22:22">
       <c r="V828" s="2"/>
     </row>
-    <row r="829">
+    <row r="829" spans="22:22">
       <c r="V829" s="2"/>
     </row>
-    <row r="830">
+    <row r="830" spans="22:22">
       <c r="V830" s="2"/>
     </row>
-    <row r="831">
+    <row r="831" spans="22:22">
       <c r="V831" s="2"/>
     </row>
-    <row r="832">
+    <row r="832" spans="22:22">
       <c r="V832" s="2"/>
     </row>
-    <row r="833">
+    <row r="833" spans="22:22">
       <c r="V833" s="2"/>
     </row>
-    <row r="834">
+    <row r="834" spans="22:22">
       <c r="V834" s="2"/>
     </row>
-    <row r="835">
+    <row r="835" spans="22:22">
       <c r="V835" s="2"/>
     </row>
-    <row r="836">
+    <row r="836" spans="22:22">
       <c r="V836" s="2"/>
     </row>
-    <row r="837">
+    <row r="837" spans="22:22">
       <c r="V837" s="2"/>
     </row>
-    <row r="838">
+    <row r="838" spans="22:22">
       <c r="V838" s="2"/>
     </row>
-    <row r="839">
+    <row r="839" spans="22:22">
       <c r="V839" s="2"/>
     </row>
-    <row r="840">
+    <row r="840" spans="22:22">
       <c r="V840" s="2"/>
     </row>
-    <row r="841">
+    <row r="841" spans="22:22">
       <c r="V841" s="2"/>
     </row>
-    <row r="842">
+    <row r="842" spans="22:22">
       <c r="V842" s="2"/>
     </row>
-    <row r="843">
+    <row r="843" spans="22:22">
       <c r="V843" s="2"/>
     </row>
-    <row r="844">
+    <row r="844" spans="22:22">
       <c r="V844" s="2"/>
     </row>
-    <row r="845">
+    <row r="845" spans="22:22">
       <c r="V845" s="2"/>
     </row>
-    <row r="846">
+    <row r="846" spans="22:22">
       <c r="V846" s="2"/>
     </row>
-    <row r="847">
+    <row r="847" spans="22:22">
       <c r="V847" s="2"/>
     </row>
-    <row r="848">
+    <row r="848" spans="22:22">
       <c r="V848" s="2"/>
     </row>
-    <row r="849">
+    <row r="849" spans="22:22">
       <c r="V849" s="2"/>
     </row>
-    <row r="850">
+    <row r="850" spans="22:22">
       <c r="V850" s="2"/>
     </row>
-    <row r="851">
+    <row r="851" spans="22:22">
       <c r="V851" s="2"/>
     </row>
-    <row r="852">
+    <row r="852" spans="22:22">
       <c r="V852" s="2"/>
     </row>
-    <row r="853">
+    <row r="853" spans="22:22">
       <c r="V853" s="2"/>
     </row>
-    <row r="854">
+    <row r="854" spans="22:22">
       <c r="V854" s="2"/>
     </row>
-    <row r="855">
+    <row r="855" spans="22:22">
       <c r="V855" s="2"/>
     </row>
-    <row r="856">
+    <row r="856" spans="22:22">
       <c r="V856" s="2"/>
     </row>
-    <row r="857">
+    <row r="857" spans="22:22">
       <c r="V857" s="2"/>
     </row>
-    <row r="858">
+    <row r="858" spans="22:22">
       <c r="V858" s="2"/>
     </row>
-    <row r="859">
+    <row r="859" spans="22:22">
       <c r="V859" s="2"/>
     </row>
-    <row r="860">
+    <row r="860" spans="22:22">
       <c r="V860" s="2"/>
     </row>
-    <row r="861">
+    <row r="861" spans="22:22">
       <c r="V861" s="2"/>
     </row>
-    <row r="862">
+    <row r="862" spans="22:22">
       <c r="V862" s="2"/>
     </row>
-    <row r="863">
+    <row r="863" spans="22:22">
       <c r="V863" s="2"/>
     </row>
-    <row r="864">
+    <row r="864" spans="22:22">
       <c r="V864" s="2"/>
     </row>
-    <row r="865">
+    <row r="865" spans="22:22">
       <c r="V865" s="2"/>
     </row>
-    <row r="866">
+    <row r="866" spans="22:22">
       <c r="V866" s="2"/>
     </row>
-    <row r="867">
+    <row r="867" spans="22:22">
       <c r="V867" s="2"/>
     </row>
-    <row r="868">
+    <row r="868" spans="22:22">
       <c r="V868" s="2"/>
     </row>
-    <row r="869">
+    <row r="869" spans="22:22">
       <c r="V869" s="2"/>
     </row>
-    <row r="870">
+    <row r="870" spans="22:22">
       <c r="V870" s="2"/>
     </row>
-    <row r="871">
+    <row r="871" spans="22:22">
       <c r="V871" s="2"/>
     </row>
-    <row r="872">
+    <row r="872" spans="22:22">
       <c r="V872" s="2"/>
     </row>
-    <row r="873">
+    <row r="873" spans="22:22">
       <c r="V873" s="2"/>
     </row>
-    <row r="874">
+    <row r="874" spans="22:22">
       <c r="V874" s="2"/>
     </row>
-    <row r="875">
+    <row r="875" spans="22:22">
       <c r="V875" s="2"/>
     </row>
-    <row r="876">
+    <row r="876" spans="22:22">
       <c r="V876" s="2"/>
     </row>
-    <row r="877">
+    <row r="877" spans="22:22">
       <c r="V877" s="2"/>
     </row>
-    <row r="878">
+    <row r="878" spans="22:22">
       <c r="V878" s="2"/>
     </row>
-    <row r="879">
+    <row r="879" spans="22:22">
       <c r="V879" s="2"/>
     </row>
-    <row r="880">
+    <row r="880" spans="22:22">
       <c r="V880" s="2"/>
     </row>
-    <row r="881">
+    <row r="881" spans="22:22">
       <c r="V881" s="2"/>
     </row>
-    <row r="882">
+    <row r="882" spans="22:22">
       <c r="V882" s="2"/>
     </row>
-    <row r="883">
+    <row r="883" spans="22:22">
       <c r="V883" s="2"/>
     </row>
-    <row r="884">
+    <row r="884" spans="22:22">
       <c r="V884" s="2"/>
     </row>
-    <row r="885">
+    <row r="885" spans="22:22">
       <c r="V885" s="2"/>
     </row>
-    <row r="886">
+    <row r="886" spans="22:22">
       <c r="V886" s="2"/>
     </row>
-    <row r="887">
+    <row r="887" spans="22:22">
       <c r="V887" s="2"/>
     </row>
-    <row r="888">
+    <row r="888" spans="22:22">
       <c r="V888" s="2"/>
     </row>
-    <row r="889">
+    <row r="889" spans="22:22">
       <c r="V889" s="2"/>
     </row>
-    <row r="890">
+    <row r="890" spans="22:22">
       <c r="V890" s="2"/>
     </row>
-    <row r="891">
+    <row r="891" spans="22:22">
       <c r="V891" s="2"/>
     </row>
-    <row r="892">
+    <row r="892" spans="22:22">
       <c r="V892" s="2"/>
     </row>
-    <row r="893">
+    <row r="893" spans="22:22">
       <c r="V893" s="2"/>
     </row>
-    <row r="894">
+    <row r="894" spans="22:22">
       <c r="V894" s="2"/>
     </row>
-    <row r="895">
+    <row r="895" spans="22:22">
       <c r="V895" s="2"/>
     </row>
-    <row r="896">
+    <row r="896" spans="22:22">
       <c r="V896" s="2"/>
     </row>
-    <row r="897">
+    <row r="897" spans="22:22">
       <c r="V897" s="2"/>
     </row>
-    <row r="898">
+    <row r="898" spans="22:22">
       <c r="V898" s="2"/>
     </row>
-    <row r="899">
+    <row r="899" spans="22:22">
       <c r="V899" s="2"/>
     </row>
-    <row r="900">
+    <row r="900" spans="22:22">
       <c r="V900" s="2"/>
     </row>
-    <row r="901">
+    <row r="901" spans="22:22">
       <c r="V901" s="2"/>
     </row>
-    <row r="902">
+    <row r="902" spans="22:22">
       <c r="V902" s="2"/>
     </row>
-    <row r="903">
+    <row r="903" spans="22:22">
       <c r="V903" s="2"/>
     </row>
-    <row r="904">
+    <row r="904" spans="22:22">
       <c r="V904" s="2"/>
     </row>
-    <row r="905">
+    <row r="905" spans="22:22">
       <c r="V905" s="2"/>
     </row>
-    <row r="906">
+    <row r="906" spans="22:22">
       <c r="V906" s="2"/>
     </row>
-    <row r="907">
+    <row r="907" spans="22:22">
       <c r="V907" s="2"/>
     </row>
-    <row r="908">
+    <row r="908" spans="22:22">
       <c r="V908" s="2"/>
     </row>
-    <row r="909">
+    <row r="909" spans="22:22">
       <c r="V909" s="2"/>
     </row>
-    <row r="910">
+    <row r="910" spans="22:22">
       <c r="V910" s="2"/>
     </row>
-    <row r="911">
+    <row r="911" spans="22:22">
       <c r="V911" s="2"/>
     </row>
-    <row r="912">
+    <row r="912" spans="22:22">
       <c r="V912" s="2"/>
     </row>
-    <row r="913">
+    <row r="913" spans="22:22">
       <c r="V913" s="2"/>
     </row>
-    <row r="914">
+    <row r="914" spans="22:22">
       <c r="V914" s="2"/>
     </row>
-    <row r="915">
+    <row r="915" spans="22:22">
       <c r="V915" s="2"/>
     </row>
-    <row r="916">
+    <row r="916" spans="22:22">
       <c r="V916" s="2"/>
     </row>
-    <row r="917">
+    <row r="917" spans="22:22">
       <c r="V917" s="2"/>
     </row>
-    <row r="918">
+    <row r="918" spans="22:22">
       <c r="V918" s="2"/>
     </row>
-    <row r="919">
+    <row r="919" spans="22:22">
       <c r="V919" s="2"/>
     </row>
-    <row r="920">
+    <row r="920" spans="22:22">
       <c r="V920" s="2"/>
     </row>
-    <row r="921">
+    <row r="921" spans="22:22">
       <c r="V921" s="2"/>
     </row>
-    <row r="922">
+    <row r="922" spans="22:22">
       <c r="V922" s="2"/>
     </row>
-    <row r="923">
+    <row r="923" spans="22:22">
       <c r="V923" s="2"/>
     </row>
-    <row r="924">
+    <row r="924" spans="22:22">
       <c r="V924" s="2"/>
     </row>
-    <row r="925">
+    <row r="925" spans="22:22">
       <c r="V925" s="2"/>
     </row>
-    <row r="926">
+    <row r="926" spans="22:22">
       <c r="V926" s="2"/>
     </row>
-    <row r="927">
+    <row r="927" spans="22:22">
       <c r="V927" s="2"/>
     </row>
-    <row r="928">
+    <row r="928" spans="22:22">
       <c r="V928" s="2"/>
     </row>
-    <row r="929">
+    <row r="929" spans="22:22">
       <c r="V929" s="2"/>
     </row>
-    <row r="930">
+    <row r="930" spans="22:22">
       <c r="V930" s="2"/>
     </row>
-    <row r="931">
+    <row r="931" spans="22:22">
       <c r="V931" s="2"/>
     </row>
-    <row r="932">
+    <row r="932" spans="22:22">
       <c r="V932" s="2"/>
     </row>
-    <row r="933">
+    <row r="933" spans="22:22">
       <c r="V933" s="2"/>
     </row>
-    <row r="934">
+    <row r="934" spans="22:22">
       <c r="V934" s="2"/>
     </row>
-    <row r="935">
+    <row r="935" spans="22:22">
       <c r="V935" s="2"/>
     </row>
-    <row r="936">
+    <row r="936" spans="22:22">
       <c r="V936" s="2"/>
     </row>
-    <row r="937">
+    <row r="937" spans="22:22">
       <c r="V937" s="2"/>
     </row>
-    <row r="938">
+    <row r="938" spans="22:22">
       <c r="V938" s="2"/>
     </row>
-    <row r="939">
+    <row r="939" spans="22:22">
       <c r="V939" s="2"/>
     </row>
-    <row r="940">
+    <row r="940" spans="22:22">
       <c r="V940" s="2"/>
     </row>
-    <row r="941">
+    <row r="941" spans="22:22">
       <c r="V941" s="2"/>
     </row>
-    <row r="942">
+    <row r="942" spans="22:22">
       <c r="V942" s="2"/>
     </row>
-    <row r="943">
+    <row r="943" spans="22:22">
       <c r="V943" s="2"/>
     </row>
-    <row r="944">
+    <row r="944" spans="22:22">
       <c r="V944" s="2"/>
     </row>
-    <row r="945">
+    <row r="945" spans="22:22">
       <c r="V945" s="2"/>
     </row>
-    <row r="946">
+    <row r="946" spans="22:22">
       <c r="V946" s="2"/>
     </row>
-    <row r="947">
+    <row r="947" spans="22:22">
       <c r="V947" s="2"/>
     </row>
-    <row r="948">
+    <row r="948" spans="22:22">
       <c r="V948" s="2"/>
     </row>
-    <row r="949">
+    <row r="949" spans="22:22">
       <c r="V949" s="2"/>
     </row>
-    <row r="950">
+    <row r="950" spans="22:22">
       <c r="V950" s="2"/>
     </row>
-    <row r="951">
+    <row r="951" spans="22:22">
       <c r="V951" s="2"/>
     </row>
-    <row r="952">
+    <row r="952" spans="22:22">
       <c r="V952" s="2"/>
     </row>
-    <row r="953">
+    <row r="953" spans="22:22">
       <c r="V953" s="2"/>
     </row>
-    <row r="954">
+    <row r="954" spans="22:22">
       <c r="V954" s="2"/>
     </row>
-    <row r="955">
+    <row r="955" spans="22:22">
       <c r="V955" s="2"/>
     </row>
-    <row r="956">
+    <row r="956" spans="22:22">
       <c r="V956" s="2"/>
     </row>
-    <row r="957">
+    <row r="957" spans="22:22">
       <c r="V957" s="2"/>
     </row>
-    <row r="958">
+    <row r="958" spans="22:22">
       <c r="V958" s="2"/>
     </row>
-    <row r="959">
+    <row r="959" spans="22:22">
       <c r="V959" s="2"/>
     </row>
-    <row r="960">
+    <row r="960" spans="22:22">
       <c r="V960" s="2"/>
     </row>
-    <row r="961">
+    <row r="961" spans="22:22">
       <c r="V961" s="2"/>
     </row>
-    <row r="962">
+    <row r="962" spans="22:22">
       <c r="V962" s="2"/>
     </row>
-    <row r="963">
+    <row r="963" spans="22:22">
       <c r="V963" s="2"/>
     </row>
-    <row r="964">
+    <row r="964" spans="22:22">
       <c r="V964" s="2"/>
     </row>
-    <row r="965">
+    <row r="965" spans="22:22">
       <c r="V965" s="2"/>
     </row>
-    <row r="966">
+    <row r="966" spans="22:22">
       <c r="V966" s="2"/>
     </row>
-    <row r="967">
+    <row r="967" spans="22:22">
       <c r="V967" s="2"/>
     </row>
-    <row r="968">
+    <row r="968" spans="22:22">
       <c r="V968" s="2"/>
     </row>
-    <row r="969">
+    <row r="969" spans="22:22">
       <c r="V969" s="2"/>
     </row>
-    <row r="970">
+    <row r="970" spans="22:22">
       <c r="V970" s="2"/>
     </row>
-    <row r="971">
+    <row r="971" spans="22:22">
       <c r="V971" s="2"/>
     </row>
-    <row r="972">
+    <row r="972" spans="22:22">
       <c r="V972" s="2"/>
     </row>
-    <row r="973">
+    <row r="973" spans="22:22">
       <c r="V973" s="2"/>
     </row>
-    <row r="974">
+    <row r="974" spans="22:22">
       <c r="V974" s="2"/>
     </row>
-    <row r="975">
+    <row r="975" spans="22:22">
       <c r="V975" s="2"/>
     </row>
-    <row r="976">
+    <row r="976" spans="22:22">
       <c r="V976" s="2"/>
     </row>
-    <row r="977">
+    <row r="977" spans="22:22">
       <c r="V977" s="2"/>
     </row>
-    <row r="978">
+    <row r="978" spans="22:22">
       <c r="V978" s="2"/>
     </row>
-    <row r="979">
+    <row r="979" spans="22:22">
       <c r="V979" s="2"/>
     </row>
-    <row r="980">
+    <row r="980" spans="22:22">
       <c r="V980" s="2"/>
     </row>
-    <row r="981">
+    <row r="981" spans="22:22">
       <c r="V981" s="2"/>
     </row>
-    <row r="982">
+    <row r="982" spans="22:22">
       <c r="V982" s="2"/>
     </row>
-    <row r="983">
+    <row r="983" spans="22:22">
       <c r="V983" s="2"/>
     </row>
-    <row r="984">
+    <row r="984" spans="22:22">
       <c r="V984" s="2"/>
     </row>
-    <row r="985">
+    <row r="985" spans="22:22">
       <c r="V985" s="2"/>
     </row>
-    <row r="986">
+    <row r="986" spans="22:22">
       <c r="V986" s="2"/>
     </row>
-    <row r="987">
+    <row r="987" spans="22:22">
       <c r="V987" s="2"/>
     </row>
-    <row r="988">
+    <row r="988" spans="22:22">
       <c r="V988" s="2"/>
     </row>
-    <row r="989">
+    <row r="989" spans="22:22">
       <c r="V989" s="2"/>
     </row>
-    <row r="990">
+    <row r="990" spans="22:22">
       <c r="V990" s="2"/>
     </row>
-    <row r="991">
+    <row r="991" spans="22:22">
       <c r="V991" s="2"/>
     </row>
-    <row r="992">
+    <row r="992" spans="22:22">
       <c r="V992" s="2"/>
     </row>
-    <row r="993">
+    <row r="993" spans="22:22">
       <c r="V993" s="2"/>
     </row>
-    <row r="994">
+    <row r="994" spans="22:22">
       <c r="V994" s="2"/>
     </row>
-    <row r="995">
+    <row r="995" spans="22:22">
       <c r="V995" s="2"/>
     </row>
-    <row r="996">
+    <row r="996" spans="22:22">
       <c r="V996" s="2"/>
     </row>
-    <row r="997">
+    <row r="997" spans="22:22">
       <c r="V997" s="2"/>
     </row>
-    <row r="998">
+    <row r="998" spans="22:22">
       <c r="V998" s="2"/>
     </row>
-    <row r="999">
+    <row r="999" spans="22:22">
       <c r="V999" s="2"/>
     </row>
   </sheetData>
-  <dataValidations>
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" sqref="P2:P999">
       <formula1>"UserLocal,DateOnly,TimeZoneIndependent"</formula1>
     </dataValidation>
@@ -7090,27 +7352,28 @@
       <formula1>"Boolean,Date,Decimal,Double,Integer,Lookup,Money,Picklist,String,Memo,Status"</formula1>
     </dataValidation>
   </dataValidations>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="16.14"/>
-    <col customWidth="1" min="2" max="2" width="14.29"/>
-    <col customWidth="1" min="3" max="3" width="16.71"/>
-    <col customWidth="1" min="4" max="4" width="5.29"/>
-    <col customWidth="1" min="5" max="5" width="14.71"/>
-    <col customWidth="1" min="6" max="15" width="7.0"/>
-    <col customWidth="1" min="16" max="26" width="12.57"/>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="6" max="15" width="7" customWidth="1"/>
+    <col min="16" max="26" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -7137,7 +7400,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:15">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>41</v>
@@ -7146,13 +7409,13 @@
         <v>0</v>
       </c>
       <c r="D2" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:15">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>41</v>
@@ -7161,13 +7424,13 @@
         <v>0</v>
       </c>
       <c r="D3" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:15">
       <c r="A4" s="2" t="s">
         <v>44</v>
       </c>
@@ -7178,13 +7441,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:15">
       <c r="A5" s="2" t="s">
         <v>44</v>
       </c>
@@ -7195,13 +7458,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:15">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>52</v>
@@ -7210,13 +7473,13 @@
         <v>0</v>
       </c>
       <c r="D6" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:15">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
         <v>52</v>
@@ -7225,104 +7488,104 @@
         <v>0</v>
       </c>
       <c r="D7" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:15">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:15">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:15">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:15">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:15">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:15">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:15">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:15">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:15">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:5">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:5">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:5">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:5">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:5">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -7330,25 +7593,26 @@
       <c r="E21" s="2"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="26.14"/>
-    <col customWidth="1" min="2" max="2" width="16.86"/>
-    <col customWidth="1" min="3" max="3" width="14.71"/>
-    <col customWidth="1" min="4" max="21" width="7.0"/>
-    <col customWidth="1" min="22" max="26" width="12.57"/>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="21" width="7" customWidth="1"/>
+    <col min="22" max="26" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>75</v>
       </c>
@@ -7383,7 +7647,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
         <v>86</v>
       </c>
@@ -7412,13 +7676,13 @@
         <v>90</v>
       </c>
       <c r="J2" s="2">
-        <v>20000.0</v>
+        <v>20000</v>
       </c>
       <c r="K2" s="2">
-        <v>10000.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">
         <v>91</v>
       </c>
@@ -7450,100 +7714,100 @@
         <v>90</v>
       </c>
       <c r="K3" s="2">
-        <v>20000.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:11">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:11">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:11">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:11">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:11">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:11">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:11">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:11">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:11">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:11">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:11">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:11">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:3">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:3">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:3">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:3">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:3">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/JosephM.CustomisationImporter.Test/TestCustomisationsUpdate.xlsx
+++ b/JosephM.CustomisationImporter.Test/TestCustomisationsUpdate.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joseph.mcgregor-macd\Source\Repos\XRM-Developer-Tool\JosephM.CustomisationImporter.Test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joseph.mcgregor-macd\source\repos\XRM-Developer-Tool\JosephM.CustomisationImporter.Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100"/>
   </bookViews>
   <sheets>
     <sheet name="Record Types" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="133">
   <si>
     <t>Record Type Schema Name</t>
   </si>
@@ -755,20 +755,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V21"/>
+  <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" customWidth="1"/>
-    <col min="3" max="5" width="20.140625" customWidth="1"/>
-    <col min="6" max="22" width="7" customWidth="1"/>
-    <col min="23" max="26" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" customWidth="1"/>
+    <col min="3" max="4" width="20.109375" customWidth="1"/>
+    <col min="5" max="21" width="7" customWidth="1"/>
+    <col min="22" max="25" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -785,26 +787,24 @@
         <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -814,9 +814,8 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-    </row>
-    <row r="2" spans="1:22">
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
@@ -829,14 +828,14 @@
       <c r="D2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="2" t="b">
+      <c r="E2" s="2">
         <v>0</v>
       </c>
       <c r="F2" s="2">
         <v>0</v>
       </c>
       <c r="G2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" s="2">
         <v>1</v>
@@ -850,11 +849,8 @@
       <c r="K2" s="2">
         <v>1</v>
       </c>
-      <c r="L2" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22">
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" s="2" t="s">
         <v>46</v>
       </c>
@@ -867,7 +863,7 @@
       <c r="D3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="2" t="b">
+      <c r="E3" s="2">
         <v>0</v>
       </c>
       <c r="F3" s="2">
@@ -888,135 +884,114 @@
       <c r="K3" s="2">
         <v>0</v>
       </c>
-      <c r="L3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22">
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:22">
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:22">
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:22">
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:22">
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:22">
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:22">
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:22">
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:22">
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:22">
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:22">
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:22">
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:22">
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5">
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5">
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5">
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5">
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5">
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1027,25 +1002,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="32.85546875" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" customWidth="1"/>
-    <col min="7" max="11" width="19.7109375" customWidth="1"/>
-    <col min="12" max="13" width="13.7109375" customWidth="1"/>
-    <col min="14" max="17" width="12.7109375" customWidth="1"/>
-    <col min="18" max="18" width="11.5703125" customWidth="1"/>
-    <col min="19" max="20" width="11.42578125" customWidth="1"/>
-    <col min="21" max="21" width="39.42578125" customWidth="1"/>
-    <col min="22" max="22" width="6.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.109375" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" customWidth="1"/>
+    <col min="5" max="5" width="32.88671875" customWidth="1"/>
+    <col min="6" max="6" width="23.109375" customWidth="1"/>
+    <col min="7" max="11" width="19.6640625" customWidth="1"/>
+    <col min="12" max="13" width="13.6640625" customWidth="1"/>
+    <col min="14" max="17" width="12.6640625" customWidth="1"/>
+    <col min="18" max="18" width="11.5546875" customWidth="1"/>
+    <col min="19" max="20" width="11.44140625" customWidth="1"/>
+    <col min="21" max="21" width="39.44140625" customWidth="1"/>
+    <col min="22" max="22" width="6.109375" customWidth="1"/>
     <col min="23" max="27" width="7" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7362,15 +7337,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
-    <col min="4" max="4" width="5.28515625" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="5.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
     <col min="6" max="15" width="7" customWidth="1"/>
-    <col min="16" max="26" width="12.5703125" customWidth="1"/>
+    <col min="16" max="26" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -7603,13 +7578,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="26.140625" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="26.109375" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
     <col min="4" max="21" width="7" customWidth="1"/>
-    <col min="22" max="26" width="12.5703125" customWidth="1"/>
+    <col min="22" max="26" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
